--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.3887787646217913</v>
+        <v>-0.3524105621842258</v>
       </c>
       <c r="C2">
-        <v>0.230985970141025</v>
+        <v>0.2339638392033673</v>
       </c>
       <c r="D2">
-        <v>0.3691785727743612</v>
+        <v>0.2232388727433635</v>
       </c>
       <c r="E2">
-        <v>0.4975789627494311</v>
+        <v>0.2484276763433442</v>
       </c>
       <c r="F2">
-        <v>0.2598446754462612</v>
+        <v>0.3245064358698518</v>
       </c>
       <c r="G2">
-        <v>0.2872294598842698</v>
+        <v>0.3530818395184327</v>
       </c>
       <c r="H2">
-        <v>0.4800368708968128</v>
+        <v>0.2817157802184593</v>
       </c>
       <c r="I2">
-        <v>-0.2510066216546604</v>
+        <v>-0.1216789376329005</v>
       </c>
       <c r="J2">
-        <v>-0.3235033822838898</v>
+        <v>-0.1485456947955033</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2460192565823606</v>
+        <v>-0.308627206015558</v>
       </c>
       <c r="C3">
-        <v>0.3965413860469428</v>
+        <v>0.1491317200826971</v>
       </c>
       <c r="D3">
-        <v>-0.1661707566443525</v>
+        <v>0.1998439340634107</v>
       </c>
       <c r="E3">
-        <v>0.3970486055775352</v>
+        <v>0.225369501744959</v>
       </c>
       <c r="F3">
-        <v>0.6186480452168969</v>
+        <v>0.3340618959732722</v>
       </c>
       <c r="G3">
-        <v>0.5787673521289849</v>
+        <v>0.3411896464273971</v>
       </c>
       <c r="H3">
-        <v>0.6948536364312751</v>
+        <v>0.285063938410694</v>
       </c>
       <c r="I3">
-        <v>-1.083713091915792</v>
+        <v>-0.1317857274394318</v>
       </c>
       <c r="J3">
-        <v>-0.3751505129229603</v>
+        <v>-0.1979314757789317</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.02377052181268302</v>
+        <v>-0.5626106138442386</v>
       </c>
       <c r="C4">
-        <v>0.01217950038287535</v>
+        <v>-0.03016224022307131</v>
       </c>
       <c r="D4">
-        <v>0.02098655299590419</v>
+        <v>0.3273232337788203</v>
       </c>
       <c r="E4">
-        <v>0.02068504056296376</v>
+        <v>0.2325025644145216</v>
       </c>
       <c r="F4">
-        <v>0.02701534574910017</v>
+        <v>0.5169411605879962</v>
       </c>
       <c r="G4">
-        <v>0.02698371056231799</v>
+        <v>0.6463502465531483</v>
       </c>
       <c r="H4">
-        <v>0.01750739628021448</v>
+        <v>0.7519544115887903</v>
       </c>
       <c r="I4">
-        <v>-0.003500056488752839</v>
+        <v>-0.4774363114380009</v>
       </c>
       <c r="J4">
-        <v>-0.008433844675379229</v>
+        <v>-0.1361232055981033</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.344141800275481</v>
+        <v>-0.9323577383453283</v>
       </c>
       <c r="C5">
-        <v>0.0467678209242805</v>
+        <v>0.6689927865689126</v>
       </c>
       <c r="D5">
-        <v>0.5429677759632381</v>
+        <v>-0.1512615289266596</v>
       </c>
       <c r="E5">
-        <v>0.5740446313365987</v>
+        <v>0.2486896521146846</v>
       </c>
       <c r="F5">
-        <v>0.3640108278065344</v>
+        <v>0.7627736083255758</v>
       </c>
       <c r="G5">
-        <v>0.2863914915512852</v>
+        <v>1.122972480201807</v>
       </c>
       <c r="H5">
-        <v>0.5139146416823245</v>
+        <v>0.7619838320833877</v>
       </c>
       <c r="I5">
-        <v>-0.4701081563422979</v>
+        <v>-0.7645482338590606</v>
       </c>
       <c r="J5">
-        <v>-0.1859508935713681</v>
+        <v>-0.02699087580332271</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2281449000779482</v>
+        <v>-0.02387316684523514</v>
       </c>
       <c r="C6">
-        <v>0.1687609528886893</v>
+        <v>0.01710584602629897</v>
       </c>
       <c r="D6">
-        <v>0.2463379870578094</v>
+        <v>0.02293044067606176</v>
       </c>
       <c r="E6">
-        <v>0.2787402886783492</v>
+        <v>0.02148404143466776</v>
       </c>
       <c r="F6">
-        <v>0.21254446125919</v>
+        <v>0.02616316462442447</v>
       </c>
       <c r="G6">
-        <v>0.2165472772617565</v>
+        <v>0.02530005428049929</v>
       </c>
       <c r="H6">
-        <v>0.4175969822683874</v>
+        <v>0.008355400388318061</v>
       </c>
       <c r="I6">
-        <v>-0.1562983284673704</v>
+        <v>-0.007185929320152593</v>
       </c>
       <c r="J6">
-        <v>-0.09098800480401779</v>
+        <v>-0.004663372903525117</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.002971733669888595</v>
+        <v>-0.01791197893536505</v>
       </c>
       <c r="C7">
-        <v>0.001788274790533449</v>
+        <v>0.009360409276299031</v>
       </c>
       <c r="D7">
-        <v>0.002674230393792047</v>
+        <v>0.02142623649493292</v>
       </c>
       <c r="E7">
-        <v>0.002166966476156106</v>
+        <v>0.01790943901343179</v>
       </c>
       <c r="F7">
-        <v>0.003240799266846201</v>
+        <v>0.02040405349912716</v>
       </c>
       <c r="G7">
-        <v>0.002963683146992273</v>
+        <v>0.02055454220645475</v>
       </c>
       <c r="H7">
-        <v>0.00184574170677648</v>
+        <v>0.01475057926787203</v>
       </c>
       <c r="I7">
-        <v>-0.0003580951160697282</v>
+        <v>-0.007418387222722335</v>
       </c>
       <c r="J7">
-        <v>-0.0002816551201751985</v>
+        <v>-0.01028952803303992</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.3027148961593235</v>
+        <v>-0.5186489374096821</v>
       </c>
       <c r="C8">
-        <v>0.1114679645616718</v>
+        <v>0.4230715543068033</v>
       </c>
       <c r="D8">
-        <v>0.3404522640411761</v>
+        <v>0.22309017374903</v>
       </c>
       <c r="E8">
-        <v>0.2319704453876265</v>
+        <v>0.2948715979471602</v>
       </c>
       <c r="F8">
-        <v>0.3224233220084801</v>
+        <v>0.3287872079933122</v>
       </c>
       <c r="G8">
-        <v>0.3121017155612755</v>
+        <v>0.4129831964279816</v>
       </c>
       <c r="H8">
-        <v>0.3391809227933489</v>
+        <v>0.5305003272591066</v>
       </c>
       <c r="I8">
-        <v>-0.1584216857609011</v>
+        <v>-0.1791260473782698</v>
       </c>
       <c r="J8">
-        <v>-0.2120029170893777</v>
+        <v>-0.2152627606667026</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1391721573902636</v>
+        <v>-0.1710073784910603</v>
       </c>
       <c r="C9">
-        <v>0.1141697794250441</v>
+        <v>0.07761126007329046</v>
       </c>
       <c r="D9">
-        <v>0.1315343759053837</v>
+        <v>0.1590202809852983</v>
       </c>
       <c r="E9">
-        <v>0.127676853907857</v>
+        <v>0.1839994358723506</v>
       </c>
       <c r="F9">
-        <v>0.1433540593313909</v>
+        <v>0.1428861369492643</v>
       </c>
       <c r="G9">
-        <v>0.1394884423090371</v>
+        <v>0.1241887315987803</v>
       </c>
       <c r="H9">
-        <v>0.1202432082732563</v>
+        <v>0.1257480827212373</v>
       </c>
       <c r="I9">
-        <v>-0.03838918449168551</v>
+        <v>-0.04397078136584729</v>
       </c>
       <c r="J9">
-        <v>-0.06408958362991699</v>
+        <v>-0.0539336520682318</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,31 +694,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2859994437447754</v>
+        <v>-0.4546964295532585</v>
       </c>
       <c r="C10">
-        <v>0.2375185022424566</v>
+        <v>0.05089703193041271</v>
       </c>
       <c r="D10">
-        <v>0.1294109520834734</v>
+        <v>0.33650523344568</v>
       </c>
       <c r="E10">
-        <v>0.3819260686588926</v>
+        <v>0.3208772370935986</v>
       </c>
       <c r="F10">
-        <v>0.4105979591527584</v>
+        <v>0.3610493225094512</v>
       </c>
       <c r="G10">
-        <v>0.4957522042132212</v>
+        <v>0.4436652842657422</v>
       </c>
       <c r="H10">
-        <v>0.7989884060379251</v>
+        <v>0.5489758671427775</v>
       </c>
       <c r="I10">
-        <v>-0.6897310157488831</v>
+        <v>-0.1634573007397917</v>
       </c>
       <c r="J10">
-        <v>-0.107081328829451</v>
+        <v>0.03632094291732973</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -726,31 +726,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1513386959664965</v>
+        <v>-0.02032862314443027</v>
       </c>
       <c r="C11">
-        <v>0.1089116613714208</v>
+        <v>0.01809613807488238</v>
       </c>
       <c r="D11">
-        <v>0.1720400293608207</v>
+        <v>0.02109117106852928</v>
       </c>
       <c r="E11">
-        <v>0.1023838850516231</v>
+        <v>0.01317064282764092</v>
       </c>
       <c r="F11">
-        <v>0.1496038371457818</v>
+        <v>0.0219211448549125</v>
       </c>
       <c r="G11">
-        <v>0.1414655070509511</v>
+        <v>0.02158771734084762</v>
       </c>
       <c r="H11">
-        <v>0.1297697801437157</v>
+        <v>0.01873835411628219</v>
       </c>
       <c r="I11">
-        <v>-0.03163199915008494</v>
+        <v>-0.007397047712198569</v>
       </c>
       <c r="J11">
-        <v>-0.01442933315250007</v>
+        <v>-0.007671264117217665</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -758,31 +758,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.02324763822114202</v>
+        <v>-0.02070042611325979</v>
       </c>
       <c r="C12">
-        <v>0.01455466620483381</v>
+        <v>0.01835275457166725</v>
       </c>
       <c r="D12">
-        <v>0.02467815628091821</v>
+        <v>0.01898548830456245</v>
       </c>
       <c r="E12">
-        <v>0.02038069916948496</v>
+        <v>0.01949983685155622</v>
       </c>
       <c r="F12">
-        <v>0.02463818091943159</v>
+        <v>0.0204537134308592</v>
       </c>
       <c r="G12">
-        <v>0.0201116179646204</v>
+        <v>0.02050905711186786</v>
       </c>
       <c r="H12">
-        <v>0.02238944051371262</v>
+        <v>0.01969253114342102</v>
       </c>
       <c r="I12">
-        <v>-0.003538186350646771</v>
+        <v>-0.007404377952850168</v>
       </c>
       <c r="J12">
-        <v>-0.006969123324984511</v>
+        <v>-0.005541774614592407</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -790,31 +790,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.002240338885064673</v>
+        <v>-0.002897205512462131</v>
       </c>
       <c r="C13">
-        <v>0.00111512151103154</v>
+        <v>0.001712396442254399</v>
       </c>
       <c r="D13">
-        <v>0.002816234395549452</v>
+        <v>0.002598020021234096</v>
       </c>
       <c r="E13">
-        <v>0.002408810052434911</v>
+        <v>0.002398763855775225</v>
       </c>
       <c r="F13">
-        <v>0.002392535621070199</v>
+        <v>0.002966791804745086</v>
       </c>
       <c r="G13">
-        <v>0.002110426655681316</v>
+        <v>0.002731501826700277</v>
       </c>
       <c r="H13">
-        <v>0.00164948935264823</v>
+        <v>0.001730283777618498</v>
       </c>
       <c r="I13">
-        <v>-0.0003587081994837418</v>
+        <v>-0.0007656761213342839</v>
       </c>
       <c r="J13">
-        <v>-0.001031885758439944</v>
+        <v>-0.0007013135907997948</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -822,31 +822,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.4385233231437859</v>
+        <v>-0.5111568949414304</v>
       </c>
       <c r="C14">
-        <v>0.07760228104704352</v>
+        <v>0.1644731332101049</v>
       </c>
       <c r="D14">
-        <v>0.5347421868768805</v>
+        <v>0.2956291453078088</v>
       </c>
       <c r="E14">
-        <v>0.3313073806036615</v>
+        <v>0.4125722505428599</v>
       </c>
       <c r="F14">
-        <v>0.4099802303086293</v>
+        <v>0.398976657025226</v>
       </c>
       <c r="G14">
-        <v>0.5652864613782134</v>
+        <v>0.4213939456625506</v>
       </c>
       <c r="H14">
-        <v>0.7509456263240586</v>
+        <v>0.5001489916000988</v>
       </c>
       <c r="I14">
-        <v>-0.5727311793066451</v>
+        <v>-0.1849674939904042</v>
       </c>
       <c r="J14">
-        <v>0.02997702672361939</v>
+        <v>-0.2462204751583975</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -854,31 +854,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.46184579274252</v>
+        <v>-0.3947741012415566</v>
       </c>
       <c r="C15">
-        <v>0.1294378814268382</v>
+        <v>0.1599491229038085</v>
       </c>
       <c r="D15">
-        <v>0.3624751774370255</v>
+        <v>0.296542593561156</v>
       </c>
       <c r="E15">
-        <v>0.5271609822113028</v>
+        <v>0.1861627796815605</v>
       </c>
       <c r="F15">
-        <v>0.4344795604181984</v>
+        <v>0.3747911150939358</v>
       </c>
       <c r="G15">
-        <v>0.5718170459968954</v>
+        <v>0.4698405548415496</v>
       </c>
       <c r="H15">
-        <v>0.6431734599453481</v>
+        <v>0.3946248581174838</v>
       </c>
       <c r="I15">
-        <v>-0.4634859803325477</v>
+        <v>-0.2144082719342751</v>
       </c>
       <c r="J15">
-        <v>-0.2244820337218802</v>
+        <v>-0.2440326472706152</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -886,31 +886,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2833829200673633</v>
+        <v>-0.7610279483376264</v>
       </c>
       <c r="C16">
-        <v>0.2608277267156002</v>
+        <v>0.3669234006915581</v>
       </c>
       <c r="D16">
-        <v>0.3294692508412235</v>
+        <v>0.4867254411913884</v>
       </c>
       <c r="E16">
-        <v>0.1794696133407474</v>
+        <v>0.4656164870114986</v>
       </c>
       <c r="F16">
-        <v>0.239988733829928</v>
+        <v>0.2547329222977772</v>
       </c>
       <c r="G16">
-        <v>0.3100317505529467</v>
+        <v>0.7425650134975281</v>
       </c>
       <c r="H16">
-        <v>0.538866610046576</v>
+        <v>1.02596993586344</v>
       </c>
       <c r="I16">
-        <v>-0.3162381035877426</v>
+        <v>-0.8818781100030287</v>
       </c>
       <c r="J16">
-        <v>-0.01955478658331118</v>
+        <v>-0.2161449779512448</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -918,31 +918,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2824220509874926</v>
+        <v>-0.3269875806135196</v>
       </c>
       <c r="C17">
-        <v>0.3400166912683311</v>
+        <v>0.1730487500628289</v>
       </c>
       <c r="D17">
-        <v>0.009600827943095698</v>
+        <v>0.2634872347294967</v>
       </c>
       <c r="E17">
-        <v>0.3881903214310626</v>
+        <v>0.2229795513641768</v>
       </c>
       <c r="F17">
-        <v>0.3657555271227981</v>
+        <v>0.3048816995891888</v>
       </c>
       <c r="G17">
-        <v>0.6818082253986095</v>
+        <v>0.3122664087383512</v>
       </c>
       <c r="H17">
-        <v>0.5840781154209035</v>
+        <v>0.3530432891724045</v>
       </c>
       <c r="I17">
-        <v>-0.5228782877466901</v>
+        <v>-0.2042571452065044</v>
       </c>
       <c r="J17">
-        <v>-0.2175038926318905</v>
+        <v>0.01815700324673688</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -950,31 +950,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1431102022012978</v>
+        <v>-0.5165322482532831</v>
       </c>
       <c r="C18">
-        <v>0.05016539698402468</v>
+        <v>0.1475143921835934</v>
       </c>
       <c r="D18">
-        <v>0.1647950916610713</v>
+        <v>0.4080992358802502</v>
       </c>
       <c r="E18">
-        <v>0.147828396915508</v>
+        <v>0.3816979587836949</v>
       </c>
       <c r="F18">
-        <v>0.1422459286932144</v>
+        <v>0.3885731079620271</v>
       </c>
       <c r="G18">
-        <v>0.1010959097432106</v>
+        <v>0.3084099726689558</v>
       </c>
       <c r="H18">
-        <v>0.1550251929628241</v>
+        <v>0.5431643004439889</v>
       </c>
       <c r="I18">
-        <v>-0.03732983361554501</v>
+        <v>-0.2257339779140402</v>
       </c>
       <c r="J18">
-        <v>-0.08292377338529799</v>
+        <v>-0.3068072315359335</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -982,31 +982,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.4158007704983057</v>
+        <v>-0.003170412039417993</v>
       </c>
       <c r="C19">
-        <v>0.3011652460011872</v>
+        <v>0.002035704133645167</v>
       </c>
       <c r="D19">
-        <v>0.4552192874783964</v>
+        <v>0.003139857367533068</v>
       </c>
       <c r="E19">
-        <v>0.4588247657936517</v>
+        <v>0.002749424251137451</v>
       </c>
       <c r="F19">
-        <v>0.3242279782417626</v>
+        <v>0.002770343354802416</v>
       </c>
       <c r="G19">
-        <v>0.2616833935661967</v>
+        <v>0.002347284223039776</v>
       </c>
       <c r="H19">
-        <v>0.4541735289469699</v>
+        <v>0.001735331225419499</v>
       </c>
       <c r="I19">
-        <v>-0.250779786647746</v>
+        <v>-0.0007702751451938058</v>
       </c>
       <c r="J19">
-        <v>-0.2826898450602472</v>
+        <v>-0.0008872042625026723</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1296633747178897</v>
+        <v>-0.3543574927737128</v>
       </c>
       <c r="C20">
-        <v>0.06493934472234839</v>
+        <v>0.1445726165061726</v>
       </c>
       <c r="D20">
-        <v>0.1624196706902496</v>
+        <v>0.2875278038746804</v>
       </c>
       <c r="E20">
-        <v>0.1016101020312109</v>
+        <v>0.1864939840218164</v>
       </c>
       <c r="F20">
-        <v>0.1450053440491113</v>
+        <v>0.3160515929968763</v>
       </c>
       <c r="G20">
-        <v>0.1271443198415467</v>
+        <v>0.330952722789342</v>
       </c>
       <c r="H20">
-        <v>0.1260852859948939</v>
+        <v>0.4045326406217389</v>
       </c>
       <c r="I20">
-        <v>-0.02697521562201674</v>
+        <v>-0.2090439857678307</v>
       </c>
       <c r="J20">
-        <v>-0.07782366746342671</v>
+        <v>-0.03568229602240106</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.7695907815149783</v>
+        <v>-0.3607497016901925</v>
       </c>
       <c r="C21">
-        <v>0.6285788211562083</v>
+        <v>0.1805490498094705</v>
       </c>
       <c r="D21">
-        <v>-0.09776378492296663</v>
+        <v>0.1875767389746364</v>
       </c>
       <c r="E21">
-        <v>0.6298115496821315</v>
+        <v>0.3792090765778205</v>
       </c>
       <c r="F21">
-        <v>0.8043198838692616</v>
+        <v>0.3440201655114768</v>
       </c>
       <c r="G21">
-        <v>1.128322572248699</v>
+        <v>0.3502811202236877</v>
       </c>
       <c r="H21">
-        <v>0.7406173440907287</v>
+        <v>0.3741769675307068</v>
       </c>
       <c r="I21">
-        <v>-0.9717805948354867</v>
+        <v>-0.2572226475888575</v>
       </c>
       <c r="J21">
-        <v>-0.509684598199322</v>
+        <v>-0.1110870568173823</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.02400346682134895</v>
+        <v>-0.4088349384474853</v>
       </c>
       <c r="C22">
-        <v>0.01556279611061936</v>
+        <v>0.244808062763629</v>
       </c>
       <c r="D22">
-        <v>0.02248805780591085</v>
+        <v>0.2092462333229995</v>
       </c>
       <c r="E22">
-        <v>0.02587656702196066</v>
+        <v>0.2386726274404983</v>
       </c>
       <c r="F22">
-        <v>0.02637294425785322</v>
+        <v>0.3705491271950618</v>
       </c>
       <c r="G22">
-        <v>0.02316853537443808</v>
+        <v>0.3787109911303458</v>
       </c>
       <c r="H22">
-        <v>0.01502512163523058</v>
+        <v>0.505744370474445</v>
       </c>
       <c r="I22">
-        <v>-0.003551526867453118</v>
+        <v>-0.2452536772215956</v>
       </c>
       <c r="J22">
-        <v>-0.003374215260543736</v>
+        <v>-0.07315607482735305</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.01874190227336544</v>
+        <v>-0.003062867850311114</v>
       </c>
       <c r="C23">
-        <v>0.01748524841395284</v>
+        <v>0.001925387568940741</v>
       </c>
       <c r="D23">
-        <v>0.02172845572905382</v>
+        <v>0.002581809595388542</v>
       </c>
       <c r="E23">
-        <v>0.01641345594425364</v>
+        <v>0.002629426921472916</v>
       </c>
       <c r="F23">
-        <v>0.02069684204650115</v>
+        <v>0.002707817364192455</v>
       </c>
       <c r="G23">
-        <v>0.02106202448947362</v>
+        <v>0.002742063618253627</v>
       </c>
       <c r="H23">
-        <v>0.01848975945644478</v>
+        <v>0.002205348395420365</v>
       </c>
       <c r="I23">
-        <v>-0.00354408885987222</v>
+        <v>-0.0007699841786075555</v>
       </c>
       <c r="J23">
-        <v>-0.004812604855931803</v>
+        <v>-0.0002994726215312104</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.2700771731956496</v>
+        <v>-0.1243347740174471</v>
       </c>
       <c r="C24">
-        <v>0.2140152294141899</v>
+        <v>0.08350160168173466</v>
       </c>
       <c r="D24">
-        <v>0.2313576644632484</v>
+        <v>0.1324668937097274</v>
       </c>
       <c r="E24">
-        <v>0.1479659501483089</v>
+        <v>0.1244351834500836</v>
       </c>
       <c r="F24">
-        <v>0.3379312224396228</v>
+        <v>0.1313406744287214</v>
       </c>
       <c r="G24">
-        <v>0.3019114950879131</v>
+        <v>0.1211534367528752</v>
       </c>
       <c r="H24">
-        <v>0.3817813432867154</v>
+        <v>0.1113889803174226</v>
       </c>
       <c r="I24">
-        <v>-0.1729887761430565</v>
+        <v>-0.04847346038003367</v>
       </c>
       <c r="J24">
-        <v>-0.154322140171838</v>
+        <v>-0.05939053550850491</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1174,31 +1174,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.259161136237016</v>
+        <v>-0.002051502140868446</v>
       </c>
       <c r="C25">
-        <v>0.0735432955269799</v>
+        <v>0.001601850374830928</v>
       </c>
       <c r="D25">
-        <v>0.3493399694265382</v>
+        <v>0.002109460780798959</v>
       </c>
       <c r="E25">
-        <v>0.1421680988974698</v>
+        <v>0.001970582461234116</v>
       </c>
       <c r="F25">
-        <v>0.2860566314333021</v>
+        <v>0.002487996738087783</v>
       </c>
       <c r="G25">
-        <v>0.3256080445507769</v>
+        <v>0.002075207348246337</v>
       </c>
       <c r="H25">
-        <v>0.3039133422173292</v>
+        <v>0.001621173371312509</v>
       </c>
       <c r="I25">
-        <v>-0.1103086047495757</v>
+        <v>-0.0007706671370961561</v>
       </c>
       <c r="J25">
-        <v>-0.04692239364083755</v>
+        <v>-0.0007467844150600874</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1206,31 +1206,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.07616829460654291</v>
+        <v>-0.02404351897730498</v>
       </c>
       <c r="C26">
-        <v>0.1735073964717142</v>
+        <v>0.01659225338670159</v>
       </c>
       <c r="D26">
-        <v>0.1605880617096263</v>
+        <v>0.0242901030674124</v>
       </c>
       <c r="E26">
-        <v>0.290963992550612</v>
+        <v>0.02475952387124191</v>
       </c>
       <c r="F26">
-        <v>0.4100086104566603</v>
+        <v>0.02407784153913273</v>
       </c>
       <c r="G26">
-        <v>0.4110215054290966</v>
+        <v>0.02162855247784252</v>
       </c>
       <c r="H26">
-        <v>0.589310293179295</v>
+        <v>0.01342310808530547</v>
       </c>
       <c r="I26">
-        <v>-0.9091911021705688</v>
+        <v>-0.007275538914711913</v>
       </c>
       <c r="J26">
-        <v>-0.1530437660196475</v>
+        <v>-0.002383570994029302</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3441091490066031</v>
+        <v>-0.1561200949302124</v>
       </c>
       <c r="C27">
-        <v>0.2854868131207768</v>
+        <v>0.108009732944251</v>
       </c>
       <c r="D27">
-        <v>0.3640070192686456</v>
+        <v>0.1584123422369167</v>
       </c>
       <c r="E27">
-        <v>0.2332484086276277</v>
+        <v>0.1449469341012053</v>
       </c>
       <c r="F27">
-        <v>0.3131209680731563</v>
+        <v>0.1365247114816736</v>
       </c>
       <c r="G27">
-        <v>0.3416695423428935</v>
+        <v>0.122485136963035</v>
       </c>
       <c r="H27">
-        <v>0.3763219601519509</v>
+        <v>0.1027471979522012</v>
       </c>
       <c r="I27">
-        <v>-0.2936998553617931</v>
+        <v>-0.05600504663678646</v>
       </c>
       <c r="J27">
-        <v>-0.3072061825705686</v>
+        <v>-0.06554597237745623</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1270,31 +1270,31 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.01608299407438816</v>
+        <v>-0.02901790369211386</v>
       </c>
       <c r="C28">
-        <v>0.01233165737226529</v>
+        <v>0.02034703463721408</v>
       </c>
       <c r="D28">
-        <v>0.0157669969211478</v>
+        <v>0.02726227975772031</v>
       </c>
       <c r="E28">
-        <v>0.01734332403098669</v>
+        <v>0.02158214728539051</v>
       </c>
       <c r="F28">
-        <v>0.01807107497611472</v>
+        <v>0.02562782627297505</v>
       </c>
       <c r="G28">
-        <v>0.02195691210140349</v>
+        <v>0.02334390173262803</v>
       </c>
       <c r="H28">
-        <v>0.02084975273574223</v>
+        <v>0.02002760014918475</v>
       </c>
       <c r="I28">
-        <v>-0.003531966585672886</v>
+        <v>-0.007168314684712878</v>
       </c>
       <c r="J28">
-        <v>-0.006364362243512794</v>
+        <v>-0.007432909699118201</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1302,31 +1302,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.3087915794306588</v>
+        <v>-0.02024384942763709</v>
       </c>
       <c r="C29">
-        <v>0.2030121776053674</v>
+        <v>0.01572742352000507</v>
       </c>
       <c r="D29">
-        <v>0.3584272509541458</v>
+        <v>0.02375051323399292</v>
       </c>
       <c r="E29">
-        <v>0.6658126435604691</v>
+        <v>0.0164194275434816</v>
       </c>
       <c r="F29">
-        <v>0.3359119892652724</v>
+        <v>0.02323277307062043</v>
       </c>
       <c r="G29">
-        <v>0.3446666546265942</v>
+        <v>0.02171891725975037</v>
       </c>
       <c r="H29">
-        <v>0.7575488443950742</v>
+        <v>0.01368199009082328</v>
       </c>
       <c r="I29">
-        <v>-0.8001353623084355</v>
+        <v>-0.007360813430450742</v>
       </c>
       <c r="J29">
-        <v>-0.0410601360305629</v>
+        <v>-0.003968873727579533</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1334,31 +1334,31 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.2873690526515126</v>
+        <v>-0.4701331211776751</v>
       </c>
       <c r="C30">
-        <v>0.04676088545763786</v>
+        <v>0.287543867159519</v>
       </c>
       <c r="D30">
-        <v>0.6396301430996927</v>
+        <v>0.4228498631554086</v>
       </c>
       <c r="E30">
-        <v>0.1000904606272825</v>
+        <v>0.3084573366985167</v>
       </c>
       <c r="F30">
-        <v>0.3850486553541541</v>
+        <v>0.2929511554428226</v>
       </c>
       <c r="G30">
-        <v>0.5422353491438303</v>
+        <v>0.3338848460786926</v>
       </c>
       <c r="H30">
-        <v>1.298762944583771</v>
+        <v>0.4304388411264423</v>
       </c>
       <c r="I30">
-        <v>-1.430589713629627</v>
+        <v>-0.2293934543567989</v>
       </c>
       <c r="J30">
-        <v>0.1476094985348975</v>
+        <v>-0.2768439574238314</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1366,31 +1366,31 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.4572764510991792</v>
+        <v>-0.02471924984068607</v>
       </c>
       <c r="C31">
-        <v>0.1802725004879489</v>
+        <v>0.0169450877293865</v>
       </c>
       <c r="D31">
-        <v>0.3615939119266398</v>
+        <v>0.02232957271362921</v>
       </c>
       <c r="E31">
-        <v>0.5792599752648981</v>
+        <v>0.02173320031112293</v>
       </c>
       <c r="F31">
-        <v>0.5219654299756971</v>
+        <v>0.02315250143867388</v>
       </c>
       <c r="G31">
-        <v>0.5801651969037789</v>
+        <v>0.0230194279582692</v>
       </c>
       <c r="H31">
-        <v>0.1857506099095477</v>
+        <v>0.02119154679598577</v>
       </c>
       <c r="I31">
-        <v>-0.3050614539625571</v>
+        <v>-0.007296053893043803</v>
       </c>
       <c r="J31">
-        <v>-0.1566698006245974</v>
+        <v>-0.005854885112210292</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.02477116744276656</v>
+        <v>-0.3008857139905611</v>
       </c>
       <c r="C32">
-        <v>0.01936976904442068</v>
+        <v>0.1241225081927102</v>
       </c>
       <c r="D32">
-        <v>0.02665422468592186</v>
+        <v>0.2290218863896373</v>
       </c>
       <c r="E32">
-        <v>0.02202087126167254</v>
+        <v>0.3385950008462454</v>
       </c>
       <c r="F32">
-        <v>0.02475973904898577</v>
+        <v>0.2450661427334743</v>
       </c>
       <c r="G32">
-        <v>0.02093907626794153</v>
+        <v>0.2517454174621266</v>
       </c>
       <c r="H32">
-        <v>0.01816625282226872</v>
+        <v>0.37072039897929</v>
       </c>
       <c r="I32">
-        <v>-0.003562829933238693</v>
+        <v>-0.1380263628573601</v>
       </c>
       <c r="J32">
-        <v>-0.003658711554912906</v>
+        <v>-0.08185687433303138</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1430,31 +1430,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3177199933647604</v>
+        <v>-0.1570105309524085</v>
       </c>
       <c r="C33">
-        <v>0.203261889924603</v>
+        <v>0.1037154401392389</v>
       </c>
       <c r="D33">
-        <v>0.5602132266462707</v>
+        <v>0.152027695474169</v>
       </c>
       <c r="E33">
-        <v>0.4350358896333992</v>
+        <v>0.1401148102096454</v>
       </c>
       <c r="F33">
-        <v>0.4290245143633655</v>
+        <v>0.1424937742849356</v>
       </c>
       <c r="G33">
-        <v>0.3065819487123269</v>
+        <v>0.1277783663966734</v>
       </c>
       <c r="H33">
-        <v>0.76156880191109</v>
+        <v>0.1034593988765467</v>
       </c>
       <c r="I33">
-        <v>-0.8312425109336404</v>
+        <v>-0.05664043492322401</v>
       </c>
       <c r="J33">
-        <v>-0.1360773024789385</v>
+        <v>-0.0702636467210085</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1462,31 +1462,31 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.2738007615081567</v>
+        <v>-0.428723426195491</v>
       </c>
       <c r="C34">
-        <v>0.1261022606077389</v>
+        <v>0.2130096452387109</v>
       </c>
       <c r="D34">
-        <v>0.2722677581243228</v>
+        <v>0.313983747074202</v>
       </c>
       <c r="E34">
-        <v>0.3278864347405526</v>
+        <v>0.2926652994169577</v>
       </c>
       <c r="F34">
-        <v>0.3613398434944919</v>
+        <v>0.2787023255611981</v>
       </c>
       <c r="G34">
-        <v>0.3518454190575299</v>
+        <v>0.3503241404060149</v>
       </c>
       <c r="H34">
-        <v>0.2859839306177159</v>
+        <v>0.4462556706502278</v>
       </c>
       <c r="I34">
-        <v>-0.2711388209846115</v>
+        <v>-0.146087958558836</v>
       </c>
       <c r="J34">
-        <v>-0.2777791040883413</v>
+        <v>-0.02684758810109018</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1494,31 +1494,31 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.3126885957711835</v>
+        <v>-0.2818662959729068</v>
       </c>
       <c r="C35">
-        <v>0.1686741056301991</v>
+        <v>0.07914541374396855</v>
       </c>
       <c r="D35">
-        <v>0.3898745995729248</v>
+        <v>0.2775111377137592</v>
       </c>
       <c r="E35">
-        <v>0.3367706801121444</v>
+        <v>0.2395348947352029</v>
       </c>
       <c r="F35">
-        <v>0.3096610565845687</v>
+        <v>0.2941197387139693</v>
       </c>
       <c r="G35">
-        <v>0.4725992617334794</v>
+        <v>0.2898365446355016</v>
       </c>
       <c r="H35">
-        <v>0.6335839643769459</v>
+        <v>0.3242635319800684</v>
       </c>
       <c r="I35">
-        <v>-0.3753632029584799</v>
+        <v>-0.1264244368015894</v>
       </c>
       <c r="J35">
-        <v>0.006776063315043095</v>
+        <v>-0.09360114153685949</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1526,31 +1526,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.2797395157054751</v>
+        <v>-0.0269119419004234</v>
       </c>
       <c r="C36">
-        <v>0.1647867778413727</v>
+        <v>0.01225172347265575</v>
       </c>
       <c r="D36">
-        <v>0.5270186723420123</v>
+        <v>0.02626912120639422</v>
       </c>
       <c r="E36">
-        <v>0.3134175745306208</v>
+        <v>0.02281783746106675</v>
       </c>
       <c r="F36">
-        <v>0.3470269488925882</v>
+        <v>0.02484056504514361</v>
       </c>
       <c r="G36">
-        <v>0.4273887128471694</v>
+        <v>0.02445842597942711</v>
       </c>
       <c r="H36">
-        <v>0.7135478051778456</v>
+        <v>0.01866616620400001</v>
       </c>
       <c r="I36">
-        <v>-0.683974562914897</v>
+        <v>-0.007549971522739118</v>
       </c>
       <c r="J36">
-        <v>-0.2574735239041233</v>
+        <v>-0.01109071442217461</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1558,31 +1558,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.3783458044291635</v>
+        <v>-0.2578489177091529</v>
       </c>
       <c r="C37">
-        <v>0.1513652919980562</v>
+        <v>0.08541266741202265</v>
       </c>
       <c r="D37">
-        <v>0.3472389538751786</v>
+        <v>0.2822341255288556</v>
       </c>
       <c r="E37">
-        <v>0.3257669709280503</v>
+        <v>0.1935596001968145</v>
       </c>
       <c r="F37">
-        <v>0.2941992710599147</v>
+        <v>0.2715572793683406</v>
       </c>
       <c r="G37">
-        <v>0.3062391943473115</v>
+        <v>0.3300719212783824</v>
       </c>
       <c r="H37">
-        <v>0.4071571499512032</v>
+        <v>0.2394058980054996</v>
       </c>
       <c r="I37">
-        <v>-0.1249318598022738</v>
+        <v>-0.1819768248369457</v>
       </c>
       <c r="J37">
-        <v>-0.04440260754226763</v>
+        <v>-0.1802859965297312</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1590,31 +1590,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.2473770229898708</v>
+        <v>-0.1470370050705393</v>
       </c>
       <c r="C38">
-        <v>0.1710436712646097</v>
+        <v>0.1010755069982919</v>
       </c>
       <c r="D38">
-        <v>0.2654032376916163</v>
+        <v>0.1428891217567783</v>
       </c>
       <c r="E38">
-        <v>0.2259633956900448</v>
+        <v>0.1457004829259233</v>
       </c>
       <c r="F38">
-        <v>0.2356200855491508</v>
+        <v>0.1329808128335717</v>
       </c>
       <c r="G38">
-        <v>0.2668876279245279</v>
+        <v>0.131216404114868</v>
       </c>
       <c r="H38">
-        <v>0.3363957986935605</v>
+        <v>0.1041971828837859</v>
       </c>
       <c r="I38">
-        <v>-0.1248445170914065</v>
+        <v>-0.06007909485161697</v>
       </c>
       <c r="J38">
-        <v>-0.07364953934678507</v>
+        <v>-0.05051498547984355</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1622,31 +1622,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.02191066215614424</v>
+        <v>-0.2917216701030237</v>
       </c>
       <c r="C39">
-        <v>0.01379094647479509</v>
+        <v>0.1903718316290334</v>
       </c>
       <c r="D39">
-        <v>0.02385390435327887</v>
+        <v>0.1724834979653961</v>
       </c>
       <c r="E39">
-        <v>0.02110119057144491</v>
+        <v>0.2058128422495865</v>
       </c>
       <c r="F39">
-        <v>0.02448510172727661</v>
+        <v>0.3521666382461571</v>
       </c>
       <c r="G39">
-        <v>0.02194688582903858</v>
+        <v>0.3517775713629939</v>
       </c>
       <c r="H39">
-        <v>0.01256879620030461</v>
+        <v>0.2897524044302446</v>
       </c>
       <c r="I39">
-        <v>-0.003351861526888164</v>
+        <v>-0.1382032853485009</v>
       </c>
       <c r="J39">
-        <v>-0.01419853912783</v>
+        <v>-0.1675922037096945</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1654,31 +1654,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.2793685203335731</v>
+        <v>-0.3668613209798219</v>
       </c>
       <c r="C40">
-        <v>0.1816693210184478</v>
+        <v>0.1577123095223371</v>
       </c>
       <c r="D40">
-        <v>0.3091688609290417</v>
+        <v>0.3147140861260057</v>
       </c>
       <c r="E40">
-        <v>0.1668961113188404</v>
+        <v>0.3068794039435747</v>
       </c>
       <c r="F40">
-        <v>0.3517264676100829</v>
+        <v>0.2646303392440864</v>
       </c>
       <c r="G40">
-        <v>0.2846257691195312</v>
+        <v>0.2729297790028379</v>
       </c>
       <c r="H40">
-        <v>0.3635147969601054</v>
+        <v>0.3916457426518306</v>
       </c>
       <c r="I40">
-        <v>-0.1433306243518067</v>
+        <v>-0.1664382526541682</v>
       </c>
       <c r="J40">
-        <v>-0.1003366531783662</v>
+        <v>-0.130180898136002</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1686,31 +1686,31 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.1320229558048602</v>
+        <v>-0.003175963328537486</v>
       </c>
       <c r="C41">
-        <v>0.09254427330319996</v>
+        <v>0.001684769581212605</v>
       </c>
       <c r="D41">
-        <v>0.1393824141339321</v>
+        <v>0.002979171810690347</v>
       </c>
       <c r="E41">
-        <v>0.1036635294370047</v>
+        <v>0.00269181966357422</v>
       </c>
       <c r="F41">
-        <v>0.1339596309887748</v>
+        <v>0.003033415452359577</v>
       </c>
       <c r="G41">
-        <v>0.1397007341525238</v>
+        <v>0.002556782782965842</v>
       </c>
       <c r="H41">
-        <v>0.142931694031339</v>
+        <v>0.001495678218960437</v>
       </c>
       <c r="I41">
-        <v>-0.02793914232622626</v>
+        <v>-0.0007697392651029927</v>
       </c>
       <c r="J41">
-        <v>-0.07028371331653317</v>
+        <v>-0.001292357962985691</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1718,31 +1718,31 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.1459721427986802</v>
+        <v>-0.5331531654501337</v>
       </c>
       <c r="C42">
-        <v>0.09408906987733562</v>
+        <v>0.03935923148538885</v>
       </c>
       <c r="D42">
-        <v>0.1513502981817651</v>
+        <v>0.674865192860635</v>
       </c>
       <c r="E42">
-        <v>0.1575312860316855</v>
+        <v>0.2825030363408842</v>
       </c>
       <c r="F42">
-        <v>0.125156869094793</v>
+        <v>0.4618059283966222</v>
       </c>
       <c r="G42">
-        <v>0.1353982400389012</v>
+        <v>0.3292361318284265</v>
       </c>
       <c r="H42">
-        <v>0.1301936805583897</v>
+        <v>0.6775288135841747</v>
       </c>
       <c r="I42">
-        <v>-0.02626742551539794</v>
+        <v>-0.2024285410867098</v>
       </c>
       <c r="J42">
-        <v>-0.0150535395493228</v>
+        <v>-0.04149343689077204</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1750,31 +1750,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3666448275347374</v>
+        <v>-0.2361962896603484</v>
       </c>
       <c r="C43">
-        <v>0.3810356075683691</v>
+        <v>0.2699556130407521</v>
       </c>
       <c r="D43">
-        <v>0.4320037913143954</v>
+        <v>0.179231162211727</v>
       </c>
       <c r="E43">
-        <v>0.5296232814001375</v>
+        <v>0.1497512176019835</v>
       </c>
       <c r="F43">
-        <v>0.2871788708869912</v>
+        <v>0.2137367614379362</v>
       </c>
       <c r="G43">
-        <v>0.4479920559042789</v>
+        <v>0.2363807961788304</v>
       </c>
       <c r="H43">
-        <v>1.129873233553041</v>
+        <v>0.3269200357379355</v>
       </c>
       <c r="I43">
-        <v>-1.14016133737846</v>
+        <v>-0.1819920932596295</v>
       </c>
       <c r="J43">
-        <v>-0.2540071657500034</v>
+        <v>-0.09464422791828504</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,31 +1782,31 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1500177441627126</v>
+        <v>-0.8050007397481065</v>
       </c>
       <c r="C44">
-        <v>0.1185297794255453</v>
+        <v>0.01888355978133448</v>
       </c>
       <c r="D44">
-        <v>0.1643886081003346</v>
+        <v>0.840014483649583</v>
       </c>
       <c r="E44">
-        <v>0.1434207348358121</v>
+        <v>0.5189161269324096</v>
       </c>
       <c r="F44">
-        <v>0.1476073398271226</v>
+        <v>0.5359939360436932</v>
       </c>
       <c r="G44">
-        <v>0.1323902576905299</v>
+        <v>0.2491692714491357</v>
       </c>
       <c r="H44">
-        <v>0.08944315220956442</v>
+        <v>0.941786171730683</v>
       </c>
       <c r="I44">
-        <v>-0.03073456844390616</v>
+        <v>-0.5992697294158392</v>
       </c>
       <c r="J44">
-        <v>-0.01693809534921146</v>
+        <v>-0.4059172668740198</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1814,31 +1814,31 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.002478997935968589</v>
+        <v>-0.338652310850958</v>
       </c>
       <c r="C45">
-        <v>0.001891003653427022</v>
+        <v>0.08670297831367052</v>
       </c>
       <c r="D45">
-        <v>0.002617481784943296</v>
+        <v>0.3503143324186025</v>
       </c>
       <c r="E45">
-        <v>0.002230430374640131</v>
+        <v>0.1426371884465346</v>
       </c>
       <c r="F45">
-        <v>0.002752451679418098</v>
+        <v>0.3151187578199704</v>
       </c>
       <c r="G45">
-        <v>0.002435180288467571</v>
+        <v>0.3478767065787896</v>
       </c>
       <c r="H45">
-        <v>0.001601502586389452</v>
+        <v>0.3364205763780866</v>
       </c>
       <c r="I45">
-        <v>-0.0003580212111156573</v>
+        <v>-0.1372339386442933</v>
       </c>
       <c r="J45">
-        <v>-0.0006394739429908091</v>
+        <v>-0.09230228898560254</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1846,31 +1846,31 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.299635113635534</v>
+        <v>-0.3014176647438048</v>
       </c>
       <c r="C46">
-        <v>-0.01429658551862839</v>
+        <v>0.1362598943403491</v>
       </c>
       <c r="D46">
-        <v>0.8591773464244208</v>
+        <v>0.301623694057766</v>
       </c>
       <c r="E46">
-        <v>0.4084680860850646</v>
+        <v>0.2216857530622655</v>
       </c>
       <c r="F46">
-        <v>0.3977495730876869</v>
+        <v>0.265675992426758</v>
       </c>
       <c r="G46">
-        <v>0.4187027565837558</v>
+        <v>0.2826469123700853</v>
       </c>
       <c r="H46">
-        <v>0.8393745321185304</v>
+        <v>0.3652516140510327</v>
       </c>
       <c r="I46">
-        <v>-1.301127620451761</v>
+        <v>-0.2418000004919056</v>
       </c>
       <c r="J46">
-        <v>-0.2570805893443451</v>
+        <v>-0.09298306201155596</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1878,31 +1878,31 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.2928000904837249</v>
+        <v>-0.001549427894671027</v>
       </c>
       <c r="C47">
-        <v>0.08839538758057933</v>
+        <v>0.001125750404531209</v>
       </c>
       <c r="D47">
-        <v>0.4063307386102178</v>
+        <v>0.002052071412033639</v>
       </c>
       <c r="E47">
-        <v>0.2567813074074006</v>
+        <v>0.001755062869771281</v>
       </c>
       <c r="F47">
-        <v>0.3428819149458924</v>
+        <v>0.001829221134808114</v>
       </c>
       <c r="G47">
-        <v>0.3281871937461271</v>
+        <v>0.001983695675637695</v>
       </c>
       <c r="H47">
-        <v>0.4162743567022734</v>
+        <v>0.001504109429585024</v>
       </c>
       <c r="I47">
-        <v>-0.2613639280379087</v>
+        <v>-0.0007687470186144859</v>
       </c>
       <c r="J47">
-        <v>-0.159849181163963</v>
+        <v>-0.0004756653665558615</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1910,31 +1910,31 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.3026960776728081</v>
+        <v>-0.002814253143046574</v>
       </c>
       <c r="C48">
-        <v>0.1045911560979475</v>
+        <v>0.001691582132029272</v>
       </c>
       <c r="D48">
-        <v>0.2223487135401986</v>
+        <v>0.002364746542931439</v>
       </c>
       <c r="E48">
-        <v>0.3146020171593151</v>
+        <v>0.00283708689852501</v>
       </c>
       <c r="F48">
-        <v>0.4397996557932884</v>
+        <v>0.002500284938987568</v>
       </c>
       <c r="G48">
-        <v>0.4830450284878556</v>
+        <v>0.002670577765093528</v>
       </c>
       <c r="H48">
-        <v>0.3225541930024217</v>
+        <v>0.001791662700968661</v>
       </c>
       <c r="I48">
-        <v>-0.2383883182305068</v>
+        <v>-0.0007689190134993093</v>
       </c>
       <c r="J48">
-        <v>-0.1253714163427086</v>
+        <v>-0.0009209519438701757</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1942,31 +1942,31 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.3199008630440892</v>
+        <v>-0.03011708801021872</v>
       </c>
       <c r="C49">
-        <v>-0.05856888884233557</v>
+        <v>0.01833793624314474</v>
       </c>
       <c r="D49">
-        <v>0.4173101710016104</v>
+        <v>0.02755714103694332</v>
       </c>
       <c r="E49">
-        <v>0.2629572591192879</v>
+        <v>0.02453123785863825</v>
       </c>
       <c r="F49">
-        <v>0.5904883165723538</v>
+        <v>0.02618976562523158</v>
       </c>
       <c r="G49">
-        <v>0.7454765130554128</v>
+        <v>0.02406021361532821</v>
       </c>
       <c r="H49">
-        <v>0.7553191921441937</v>
+        <v>0.01968351764928182</v>
       </c>
       <c r="I49">
-        <v>-1.134136281552944</v>
+        <v>-0.007377173055725299</v>
       </c>
       <c r="J49">
-        <v>-0.0863921203607963</v>
+        <v>-0.007529202084386747</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,31 +1974,31 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.1355482824635124</v>
+        <v>-0.01859891727508649</v>
       </c>
       <c r="C50">
-        <v>0.1450400707606283</v>
+        <v>0.01321877344651072</v>
       </c>
       <c r="D50">
-        <v>0.215387629678617</v>
+        <v>0.01754659552813118</v>
       </c>
       <c r="E50">
-        <v>0.05754304070995034</v>
+        <v>0.01995910458933697</v>
       </c>
       <c r="F50">
-        <v>0.2177766949166523</v>
+        <v>0.01805151444884082</v>
       </c>
       <c r="G50">
-        <v>0.2471269141502832</v>
+        <v>0.02082269819423088</v>
       </c>
       <c r="H50">
-        <v>0.3471800161434706</v>
+        <v>0.0186230603052633</v>
       </c>
       <c r="I50">
-        <v>-0.1483644688631873</v>
+        <v>-0.007290221861401807</v>
       </c>
       <c r="J50">
-        <v>-0.07990835958787097</v>
+        <v>-0.01110880173083715</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2006,31 +2006,31 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.369464865575782</v>
+        <v>-0.002013589876532874</v>
       </c>
       <c r="C51">
-        <v>0.3065128234465606</v>
+        <v>0.001586921159808562</v>
       </c>
       <c r="D51">
-        <v>0.6079970914635863</v>
+        <v>0.00256348329257385</v>
       </c>
       <c r="E51">
-        <v>0.3446521868644895</v>
+        <v>0.002031238998301121</v>
       </c>
       <c r="F51">
-        <v>0.4285367518927173</v>
+        <v>0.00213277556207648</v>
       </c>
       <c r="G51">
-        <v>0.613498514064013</v>
+        <v>0.002117057157940825</v>
       </c>
       <c r="H51">
-        <v>1.16092733178161</v>
+        <v>0.00130491729107945</v>
       </c>
       <c r="I51">
-        <v>-1.395548758564583</v>
+        <v>-0.0007694722276311974</v>
       </c>
       <c r="J51">
-        <v>-0.2823138984027614</v>
+        <v>-0.0005635038718265781</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2038,31 +2038,31 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.2456431135524805</v>
+        <v>-0.02236178794742731</v>
       </c>
       <c r="C52">
-        <v>0.0860270689742981</v>
+        <v>0.01301668133178422</v>
       </c>
       <c r="D52">
-        <v>0.276230814722843</v>
+        <v>0.02316466044567864</v>
       </c>
       <c r="E52">
-        <v>0.2200433678408636</v>
+        <v>0.0208269033593024</v>
       </c>
       <c r="F52">
-        <v>0.2893816226457363</v>
+        <v>0.02337499456420225</v>
       </c>
       <c r="G52">
-        <v>0.3271223345178688</v>
+        <v>0.02238470706184537</v>
       </c>
       <c r="H52">
-        <v>0.258403140251892</v>
+        <v>0.01629341977188468</v>
       </c>
       <c r="I52">
-        <v>-0.09840276721804808</v>
+        <v>-0.007314354513969636</v>
       </c>
       <c r="J52">
-        <v>-0.1549137752976319</v>
+        <v>-0.008838692789677525</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2070,31 +2070,31 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.01622210138338639</v>
+        <v>-0.2938709893993997</v>
       </c>
       <c r="C53">
-        <v>0.01332334606793718</v>
+        <v>0.1431816840049932</v>
       </c>
       <c r="D53">
-        <v>0.02017318743618476</v>
+        <v>0.2442229660095001</v>
       </c>
       <c r="E53">
-        <v>0.0166419090196176</v>
+        <v>0.156173949423108</v>
       </c>
       <c r="F53">
-        <v>0.01720933970155435</v>
+        <v>0.2824195932952549</v>
       </c>
       <c r="G53">
-        <v>0.02219130826475632</v>
+        <v>0.3066281209468709</v>
       </c>
       <c r="H53">
-        <v>0.0170680258476882</v>
+        <v>0.3548588236894827</v>
       </c>
       <c r="I53">
-        <v>-0.003507357491647659</v>
+        <v>-0.1797883361353965</v>
       </c>
       <c r="J53">
-        <v>-0.007894938632061642</v>
+        <v>-0.1193324185894941</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2102,31 +2102,31 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.01782576498041627</v>
+        <v>-0.1348756787446155</v>
       </c>
       <c r="C54">
-        <v>0.00683490230032965</v>
+        <v>0.06314899900311448</v>
       </c>
       <c r="D54">
-        <v>0.02338536015749472</v>
+        <v>0.1468318897420639</v>
       </c>
       <c r="E54">
-        <v>0.0157154785517537</v>
+        <v>0.08981662881624425</v>
       </c>
       <c r="F54">
-        <v>0.02274419992623749</v>
+        <v>0.140719936228311</v>
       </c>
       <c r="G54">
-        <v>0.021849713452231</v>
+        <v>0.1580550589924929</v>
       </c>
       <c r="H54">
-        <v>0.01500896468534126</v>
+        <v>0.1107714105284684</v>
       </c>
       <c r="I54">
-        <v>-0.003468483567201415</v>
+        <v>-0.0501440272676856</v>
       </c>
       <c r="J54">
-        <v>-0.0109981226493863</v>
+        <v>-0.03489995904471791</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2134,31 +2134,31 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.3754695827453385</v>
+        <v>-0.2891427940234592</v>
       </c>
       <c r="C55">
-        <v>0.2188593247957727</v>
+        <v>0.1460020488068982</v>
       </c>
       <c r="D55">
-        <v>0.4870561209433302</v>
+        <v>0.2131156179214609</v>
       </c>
       <c r="E55">
-        <v>0.3596353822864932</v>
+        <v>0.2277355587766001</v>
       </c>
       <c r="F55">
-        <v>0.3067260316932726</v>
+        <v>0.234463796302033</v>
       </c>
       <c r="G55">
-        <v>0.2703644535171688</v>
+        <v>0.3205017124534205</v>
       </c>
       <c r="H55">
-        <v>0.5134562248613833</v>
+        <v>0.3502028910574112</v>
       </c>
       <c r="I55">
-        <v>-0.2672755649063103</v>
+        <v>-0.1450882279557442</v>
       </c>
       <c r="J55">
-        <v>-0.1416827259293767</v>
+        <v>-0.04535832392065833</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2166,31 +2166,31 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.002338553909536429</v>
+        <v>-0.1458525943818767</v>
       </c>
       <c r="C56">
-        <v>0.001737735354030046</v>
+        <v>0.04365978170805616</v>
       </c>
       <c r="D56">
-        <v>0.002457423042124513</v>
+        <v>0.1503925809955687</v>
       </c>
       <c r="E56">
-        <v>0.001753274550510856</v>
+        <v>0.1712135564619031</v>
       </c>
       <c r="F56">
-        <v>0.002489941092174567</v>
+        <v>0.1347176895110877</v>
       </c>
       <c r="G56">
-        <v>0.002524345212170334</v>
+        <v>0.1136370568770904</v>
       </c>
       <c r="H56">
-        <v>0.002195398432412359</v>
+        <v>0.1275205828821749</v>
       </c>
       <c r="I56">
-        <v>-0.0003582158144527065</v>
+        <v>-0.04223307382321687</v>
       </c>
       <c r="J56">
-        <v>-0.000676793777145999</v>
+        <v>-0.06639919136860237</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2198,31 +2198,31 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4471593052620062</v>
+        <v>-0.3698086264777186</v>
       </c>
       <c r="C57">
-        <v>0.09390453233371114</v>
+        <v>0.05976152884833733</v>
       </c>
       <c r="D57">
-        <v>0.4433564128641573</v>
+        <v>0.2524615558639796</v>
       </c>
       <c r="E57">
-        <v>0.337053503915864</v>
+        <v>0.2537924303160538</v>
       </c>
       <c r="F57">
-        <v>0.3707159187041401</v>
+        <v>0.3331511578565168</v>
       </c>
       <c r="G57">
-        <v>0.4090377961533758</v>
+        <v>0.3237029729138824</v>
       </c>
       <c r="H57">
-        <v>0.4339959467987149</v>
+        <v>0.3964587086039838</v>
       </c>
       <c r="I57">
-        <v>-0.1452711162943698</v>
+        <v>-0.1845727261451595</v>
       </c>
       <c r="J57">
-        <v>-0.1440688921896501</v>
+        <v>-0.1665380321982818</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2230,31 +2230,31 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.2487015619134183</v>
+        <v>-0.6583803464138522</v>
       </c>
       <c r="C58">
-        <v>0.2199844715941974</v>
+        <v>0.1722137342666139</v>
       </c>
       <c r="D58">
-        <v>0.1961738814697574</v>
+        <v>0.4666692101095002</v>
       </c>
       <c r="E58">
-        <v>0.2379814864475019</v>
+        <v>0.4141884274034096</v>
       </c>
       <c r="F58">
-        <v>0.3040175633368758</v>
+        <v>0.3599819753925522</v>
       </c>
       <c r="G58">
-        <v>0.2586921172174538</v>
+        <v>0.2970749892126052</v>
       </c>
       <c r="H58">
-        <v>0.3031406416191891</v>
+        <v>1.043034748160852</v>
       </c>
       <c r="I58">
-        <v>-0.1328414742480465</v>
+        <v>-0.6711958916879963</v>
       </c>
       <c r="J58">
-        <v>-0.1934478596858878</v>
+        <v>-0.3171484679045511</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2262,31 +2262,31 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.3342185983204477</v>
+        <v>-0.4937649480173411</v>
       </c>
       <c r="C59">
-        <v>0.4257211457058274</v>
+        <v>0.01103298262197038</v>
       </c>
       <c r="D59">
-        <v>0.04428551291096761</v>
+        <v>0.4615296882187871</v>
       </c>
       <c r="E59">
-        <v>0.5514248964695116</v>
+        <v>0.2434069975881723</v>
       </c>
       <c r="F59">
-        <v>0.5053682960846648</v>
+        <v>0.3915423461973912</v>
       </c>
       <c r="G59">
-        <v>0.5210050454645095</v>
+        <v>0.6009604506991745</v>
       </c>
       <c r="H59">
-        <v>0.772836175779826</v>
+        <v>0.6863340410554994</v>
       </c>
       <c r="I59">
-        <v>-0.8267958339993355</v>
+        <v>-0.3212070490347812</v>
       </c>
       <c r="J59">
-        <v>-0.2683750234801719</v>
+        <v>-0.07790098959276592</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2294,31 +2294,31 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.1223144826250609</v>
+        <v>-0.3418816176577629</v>
       </c>
       <c r="C60">
-        <v>0.06853414427685575</v>
+        <v>0.2216258277323529</v>
       </c>
       <c r="D60">
-        <v>0.1064913547554377</v>
+        <v>0.382451018641054</v>
       </c>
       <c r="E60">
-        <v>0.1252329800879571</v>
+        <v>0.1465378963474555</v>
       </c>
       <c r="F60">
-        <v>0.1234643769283246</v>
+        <v>0.2783996448768121</v>
       </c>
       <c r="G60">
-        <v>0.1509856508197531</v>
+        <v>0.2520867125463474</v>
       </c>
       <c r="H60">
-        <v>0.1426301510211007</v>
+        <v>0.3613913718061517</v>
       </c>
       <c r="I60">
-        <v>-0.03068274928851103</v>
+        <v>-0.1688649460383571</v>
       </c>
       <c r="J60">
-        <v>-0.07289022991651312</v>
+        <v>-0.07379519307640642</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2326,31 +2326,31 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.2971351240935375</v>
+        <v>-0.00284470828791479</v>
       </c>
       <c r="C61">
-        <v>0.3373277794504366</v>
+        <v>0.001626920880493535</v>
       </c>
       <c r="D61">
-        <v>0.2117007821805517</v>
+        <v>0.002762685413972647</v>
       </c>
       <c r="E61">
-        <v>0.1794879146286389</v>
+        <v>0.00243235746616462</v>
       </c>
       <c r="F61">
-        <v>0.4331940671367246</v>
+        <v>0.00268394344143677</v>
       </c>
       <c r="G61">
-        <v>0.473475099828481</v>
+        <v>0.002718830538163107</v>
       </c>
       <c r="H61">
-        <v>0.5636513986719208</v>
+        <v>0.001658907906145846</v>
       </c>
       <c r="I61">
-        <v>-0.4044077611623815</v>
+        <v>-0.0007685048084137017</v>
       </c>
       <c r="J61">
-        <v>-0.4790310934884299</v>
+        <v>-0.0009922378670423214</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2358,31 +2358,31 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.2609025485369253</v>
+        <v>-0.4618748999072963</v>
       </c>
       <c r="C62">
-        <v>0.06738177792554295</v>
+        <v>0.1122047156974796</v>
       </c>
       <c r="D62">
-        <v>0.293481814272034</v>
+        <v>0.3861397331350429</v>
       </c>
       <c r="E62">
-        <v>0.2393548541590528</v>
+        <v>0.3416369483554863</v>
       </c>
       <c r="F62">
-        <v>0.298816558506763</v>
+        <v>0.3303974012550134</v>
       </c>
       <c r="G62">
-        <v>0.2900421850611197</v>
+        <v>0.3891985977003756</v>
       </c>
       <c r="H62">
-        <v>0.3337443099549409</v>
+        <v>0.4367254814887419</v>
       </c>
       <c r="I62">
-        <v>-0.1595568274182416</v>
+        <v>-0.3362611797566318</v>
       </c>
       <c r="J62">
-        <v>-0.1833182479788177</v>
+        <v>-0.1398750914197222</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2390,31 +2390,31 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.3095878892188641</v>
+        <v>-0.017288737265834</v>
       </c>
       <c r="C63">
-        <v>0.09320974043006024</v>
+        <v>0.01353061629245794</v>
       </c>
       <c r="D63">
-        <v>0.4503835381370414</v>
+        <v>0.01823383538774971</v>
       </c>
       <c r="E63">
-        <v>0.3086035033715953</v>
+        <v>0.01395529973855293</v>
       </c>
       <c r="F63">
-        <v>0.3277586783045096</v>
+        <v>0.02082717384033839</v>
       </c>
       <c r="G63">
-        <v>0.2891566022643642</v>
+        <v>0.02155423006231568</v>
       </c>
       <c r="H63">
-        <v>0.5034287132138142</v>
+        <v>0.01802198328044551</v>
       </c>
       <c r="I63">
-        <v>-0.3240544535783122</v>
+        <v>-0.007368814565671192</v>
       </c>
       <c r="J63">
-        <v>-0.2364377066217096</v>
+        <v>-0.004113979040441867</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2422,31 +2422,31 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.3343479318834632</v>
+        <v>-0.01862037716341064</v>
       </c>
       <c r="C64">
-        <v>0.218497905662698</v>
+        <v>0.009519925447348887</v>
       </c>
       <c r="D64">
-        <v>0.3156026915962898</v>
+        <v>0.02084683668947477</v>
       </c>
       <c r="E64">
-        <v>0.2614825291262607</v>
+        <v>0.01808051032863013</v>
       </c>
       <c r="F64">
-        <v>0.273137458177545</v>
+        <v>0.02302276274818501</v>
       </c>
       <c r="G64">
-        <v>0.2099671938345922</v>
+        <v>0.01998337864037596</v>
       </c>
       <c r="H64">
-        <v>0.4604668753215522</v>
+        <v>0.01318898709818648</v>
       </c>
       <c r="I64">
-        <v>-0.1530231824799966</v>
+        <v>-0.0073629370712831</v>
       </c>
       <c r="J64">
-        <v>-0.1663036442906978</v>
+        <v>-0.0119765166086967</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2454,31 +2454,31 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.01930009056690506</v>
+        <v>-0.003294526748457933</v>
       </c>
       <c r="C65">
-        <v>0.01848395000911317</v>
+        <v>0.001730054226680407</v>
       </c>
       <c r="D65">
-        <v>0.02325936729026937</v>
+        <v>0.00293381936016577</v>
       </c>
       <c r="E65">
-        <v>0.01598516365534357</v>
+        <v>0.002932444385941752</v>
       </c>
       <c r="F65">
-        <v>0.02453582890334081</v>
+        <v>0.002850534780643177</v>
       </c>
       <c r="G65">
-        <v>0.02004315095632291</v>
+        <v>0.002518607237603904</v>
       </c>
       <c r="H65">
-        <v>0.01462541763095738</v>
+        <v>0.002165566800091639</v>
       </c>
       <c r="I65">
-        <v>-0.003560428467998502</v>
+        <v>-0.0007722228612323666</v>
       </c>
       <c r="J65">
-        <v>-0.0002148013310950361</v>
+        <v>-0.0007172573098819478</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2486,31 +2486,31 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.2679263198653893</v>
+        <v>-0.002106270808537815</v>
       </c>
       <c r="C66">
-        <v>0.2572676808358894</v>
+        <v>0.001296697467777196</v>
       </c>
       <c r="D66">
-        <v>0.1341752929577576</v>
+        <v>0.002522574516160957</v>
       </c>
       <c r="E66">
-        <v>0.2066991570650346</v>
+        <v>0.001965088794167353</v>
       </c>
       <c r="F66">
-        <v>0.2499603674642989</v>
+        <v>0.002677694250732447</v>
       </c>
       <c r="G66">
-        <v>0.2548936914957914</v>
+        <v>0.002109756571044179</v>
       </c>
       <c r="H66">
-        <v>0.4235460583197005</v>
+        <v>0.001331777094961312</v>
       </c>
       <c r="I66">
-        <v>-0.1244450526019147</v>
+        <v>-0.0007690426175203478</v>
       </c>
       <c r="J66">
-        <v>-0.179847382317256</v>
+        <v>-0.0003268544287103618</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2518,31 +2518,31 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.3281095076352407</v>
+        <v>-0.01709338488814624</v>
       </c>
       <c r="C67">
-        <v>0.05746768920730908</v>
+        <v>0.01373831411993109</v>
       </c>
       <c r="D67">
-        <v>0.3129526906737889</v>
+        <v>0.01872116758957113</v>
       </c>
       <c r="E67">
-        <v>0.2524512280854119</v>
+        <v>0.01802035209765469</v>
       </c>
       <c r="F67">
-        <v>0.4131905016281173</v>
+        <v>0.02226589436318825</v>
       </c>
       <c r="G67">
-        <v>0.4165109226689556</v>
+        <v>0.01369503814567477</v>
       </c>
       <c r="H67">
-        <v>0.4186195100327407</v>
+        <v>0.01784116322519686</v>
       </c>
       <c r="I67">
-        <v>-0.1950353819445414</v>
+        <v>-0.007349457866185057</v>
       </c>
       <c r="J67">
-        <v>-0.2859391487856087</v>
+        <v>-0.008280450725078653</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2550,31 +2550,31 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.2698850741106285</v>
+        <v>-0.2697605654074309</v>
       </c>
       <c r="C68">
-        <v>0.04423598787451073</v>
+        <v>0.07856338911631452</v>
       </c>
       <c r="D68">
-        <v>0.0343685505480396</v>
+        <v>0.3296668619792386</v>
       </c>
       <c r="E68">
-        <v>0.5128011163471684</v>
+        <v>0.3088157926410912</v>
       </c>
       <c r="F68">
-        <v>0.4367139542301913</v>
+        <v>0.1949881972953199</v>
       </c>
       <c r="G68">
-        <v>0.671606380436913</v>
+        <v>0.2477581743237288</v>
       </c>
       <c r="H68">
-        <v>0.7176238739291727</v>
+        <v>0.273125116366254</v>
       </c>
       <c r="I68">
-        <v>-0.8196242108054235</v>
+        <v>-0.1686527750885279</v>
       </c>
       <c r="J68">
-        <v>-0.08472624334226637</v>
+        <v>-0.05888610845975899</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2582,31 +2582,31 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1885147729853943</v>
+        <v>-0.5576095108296293</v>
       </c>
       <c r="C69">
-        <v>0.03661613035010398</v>
+        <v>0.1204997615247701</v>
       </c>
       <c r="D69">
-        <v>0.2992084814348092</v>
+        <v>0.3265736253885444</v>
       </c>
       <c r="E69">
-        <v>0.07567323636427983</v>
+        <v>0.5752593717977551</v>
       </c>
       <c r="F69">
-        <v>0.5407982794909987</v>
+        <v>0.3062305496078236</v>
       </c>
       <c r="G69">
-        <v>0.7556988647604301</v>
+        <v>0.4533574132623126</v>
       </c>
       <c r="H69">
-        <v>0.8670440254258837</v>
+        <v>0.7204536396661378</v>
       </c>
       <c r="I69">
-        <v>-1.241607314025178</v>
+        <v>-0.3595607040347146</v>
       </c>
       <c r="J69">
-        <v>-0.1427370074281803</v>
+        <v>-0.224303286536867</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2614,31 +2614,31 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.3779716265723777</v>
+        <v>-0.1563527350534155</v>
       </c>
       <c r="C70">
-        <v>-0.1303246768546605</v>
+        <v>0.1091526731316304</v>
       </c>
       <c r="D70">
-        <v>0.6879609152617069</v>
+        <v>0.1357866661964121</v>
       </c>
       <c r="E70">
-        <v>0.3947513746239997</v>
+        <v>0.1281322871793529</v>
       </c>
       <c r="F70">
-        <v>0.2154895602440895</v>
+        <v>0.149056038194627</v>
       </c>
       <c r="G70">
-        <v>0.4901723299970837</v>
+        <v>0.137979011941487</v>
       </c>
       <c r="H70">
-        <v>0.7219911408224324</v>
+        <v>0.1186461122604445</v>
       </c>
       <c r="I70">
-        <v>-0.426326671702298</v>
+        <v>-0.05372263916206483</v>
       </c>
       <c r="J70">
-        <v>-0.1141422931526133</v>
+        <v>-0.06629368366585459</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2646,31 +2646,31 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.5118751260610375</v>
+        <v>-0.002213261073346538</v>
       </c>
       <c r="C71">
-        <v>0.3709380450875105</v>
+        <v>0.001475834797011981</v>
       </c>
       <c r="D71">
-        <v>0.2866725909443129</v>
+        <v>0.002569263646991153</v>
       </c>
       <c r="E71">
-        <v>0.2665848279730421</v>
+        <v>0.002163540269807153</v>
       </c>
       <c r="F71">
-        <v>0.5972423323505827</v>
+        <v>0.002227653070968393</v>
       </c>
       <c r="G71">
-        <v>0.6254230392703622</v>
+        <v>0.002104521744637442</v>
       </c>
       <c r="H71">
-        <v>0.3843788722412523</v>
+        <v>0.001874851376386284</v>
       </c>
       <c r="I71">
-        <v>-0.2723620098318593</v>
+        <v>-0.000769404253334925</v>
       </c>
       <c r="J71">
-        <v>-0.3120636113586744</v>
+        <v>-0.0004224226496227944</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2678,31 +2678,31 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.2119735470569582</v>
+        <v>-0.592403754120336</v>
       </c>
       <c r="C72">
-        <v>0.07224010752816545</v>
+        <v>0.175593860245695</v>
       </c>
       <c r="D72">
-        <v>0.3627217803612165</v>
+        <v>0.4926623694889143</v>
       </c>
       <c r="E72">
-        <v>0.4294508980299423</v>
+        <v>0.3458017104321929</v>
       </c>
       <c r="F72">
-        <v>0.3920635134969529</v>
+        <v>0.4770336819770247</v>
       </c>
       <c r="G72">
-        <v>0.4946119264345243</v>
+        <v>0.3606302558908718</v>
       </c>
       <c r="H72">
-        <v>0.6875951459059162</v>
+        <v>0.721172317631863</v>
       </c>
       <c r="I72">
-        <v>-0.8303240727477647</v>
+        <v>-0.372914694645999</v>
       </c>
       <c r="J72">
-        <v>-0.06372788112052498</v>
+        <v>-0.3236700982291225</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2710,31 +2710,31 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.1232330633300348</v>
+        <v>-0.3778446507278954</v>
       </c>
       <c r="C73">
-        <v>0.09236446219284258</v>
+        <v>0.04068350668679713</v>
       </c>
       <c r="D73">
-        <v>0.127916030295242</v>
+        <v>0.3745339871637385</v>
       </c>
       <c r="E73">
-        <v>0.1452230849624271</v>
+        <v>0.3730346172051069</v>
       </c>
       <c r="F73">
-        <v>0.1187066200362952</v>
+        <v>0.2908974448157333</v>
       </c>
       <c r="G73">
-        <v>0.1430561626582204</v>
+        <v>0.2949516547758035</v>
       </c>
       <c r="H73">
-        <v>0.1094176561093117</v>
+        <v>0.4793737670749737</v>
       </c>
       <c r="I73">
-        <v>-0.02866420547516726</v>
+        <v>-0.232472247761488</v>
       </c>
       <c r="J73">
-        <v>-0.02914961548855823</v>
+        <v>-0.01989488307325384</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2742,31 +2742,31 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.02310898065359323</v>
+        <v>-0.002435904247007978</v>
       </c>
       <c r="C74">
-        <v>0.01689419381574624</v>
+        <v>0.001551717942555101</v>
       </c>
       <c r="D74">
-        <v>0.0243654707223375</v>
+        <v>0.002471328852794432</v>
       </c>
       <c r="E74">
-        <v>0.02362718974978512</v>
+        <v>0.002554795175389448</v>
       </c>
       <c r="F74">
-        <v>0.02448936336008791</v>
+        <v>0.002273506103171023</v>
       </c>
       <c r="G74">
-        <v>0.0222329613411183</v>
+        <v>0.002316326660770234</v>
       </c>
       <c r="H74">
-        <v>0.01326917850714903</v>
+        <v>0.001654769476955762</v>
       </c>
       <c r="I74">
-        <v>-0.003448443689227183</v>
+        <v>-0.0007699040238700333</v>
       </c>
       <c r="J74">
-        <v>-0.008385037432622</v>
+        <v>-0.001051175154806619</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2774,31 +2774,31 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.3112592023920934</v>
+        <v>-0.366603305967182</v>
       </c>
       <c r="C75">
-        <v>0.2028915950571779</v>
+        <v>0.3004590453424653</v>
       </c>
       <c r="D75">
-        <v>0.2516027474451437</v>
+        <v>0.2440595406622645</v>
       </c>
       <c r="E75">
-        <v>0.2509395134532522</v>
+        <v>0.3248165854667903</v>
       </c>
       <c r="F75">
-        <v>0.3101497993555099</v>
+        <v>0.293103328265279</v>
       </c>
       <c r="G75">
-        <v>0.29771237304489</v>
+        <v>0.2460472327557508</v>
       </c>
       <c r="H75">
-        <v>0.2630918079914385</v>
+        <v>0.3058507164342739</v>
       </c>
       <c r="I75">
-        <v>-0.1207902791316927</v>
+        <v>-0.1225037350318752</v>
       </c>
       <c r="J75">
-        <v>-0.2868262889742278</v>
+        <v>-0.1505695604031862</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2806,31 +2806,31 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.4333723247328368</v>
+        <v>-0.002394653014535722</v>
       </c>
       <c r="C76">
-        <v>0.1198827271574584</v>
+        <v>0.001971011835549826</v>
       </c>
       <c r="D76">
-        <v>0.8366487997214831</v>
+        <v>0.002695487607238585</v>
       </c>
       <c r="E76">
-        <v>0.4135636161915145</v>
+        <v>0.001749456518498033</v>
       </c>
       <c r="F76">
-        <v>0.1966119429705149</v>
+        <v>0.002625487178485451</v>
       </c>
       <c r="G76">
-        <v>0.5076975029183807</v>
+        <v>0.002335215678034313</v>
       </c>
       <c r="H76">
-        <v>0.4599286845441979</v>
+        <v>0.001313571759248902</v>
       </c>
       <c r="I76">
-        <v>-0.5112309670187588</v>
+        <v>-0.0007698228369820947</v>
       </c>
       <c r="J76">
-        <v>-0.2935640103448774</v>
+        <v>-0.0007930856018479225</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2838,31 +2838,31 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.2763459258091643</v>
+        <v>-0.451219505811316</v>
       </c>
       <c r="C77">
-        <v>0.104336889132374</v>
+        <v>-0.03541356136647004</v>
       </c>
       <c r="D77">
-        <v>0.2383759451869701</v>
+        <v>0.4702718471579799</v>
       </c>
       <c r="E77">
-        <v>0.2387639622852235</v>
+        <v>0.1871337154896193</v>
       </c>
       <c r="F77">
-        <v>0.3029355962122308</v>
+        <v>0.3534425554879243</v>
       </c>
       <c r="G77">
-        <v>0.3539693458603833</v>
+        <v>0.5425567364724604</v>
       </c>
       <c r="H77">
-        <v>0.319053490997482</v>
+        <v>0.6657490170940989</v>
       </c>
       <c r="I77">
-        <v>-0.07070594279769125</v>
+        <v>-0.3878054745771756</v>
       </c>
       <c r="J77">
-        <v>-0.03459470614428746</v>
+        <v>-0.1025206947322128</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2870,31 +2870,31 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.01953113343292033</v>
+        <v>-0.6545203724145275</v>
       </c>
       <c r="C78">
-        <v>0.01454137886320643</v>
+        <v>0.3661689383487114</v>
       </c>
       <c r="D78">
-        <v>0.02507228156966822</v>
+        <v>0.3593366219220058</v>
       </c>
       <c r="E78">
-        <v>0.01855080621650382</v>
+        <v>0.2282206664501255</v>
       </c>
       <c r="F78">
-        <v>0.02289284608136897</v>
+        <v>0.4281093626122407</v>
       </c>
       <c r="G78">
-        <v>0.02020334451648447</v>
+        <v>0.4830576178027149</v>
       </c>
       <c r="H78">
-        <v>0.01498690469780727</v>
+        <v>0.8439689592383666</v>
       </c>
       <c r="I78">
-        <v>-0.00354730773990223</v>
+        <v>-0.4697036055228259</v>
       </c>
       <c r="J78">
-        <v>-0.005415257641646521</v>
+        <v>-0.2003156596710276</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2902,31 +2902,31 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.4229633345799894</v>
+        <v>-0.3487756370715464</v>
       </c>
       <c r="C79">
-        <v>0.1103812465080365</v>
+        <v>0.2209765245416561</v>
       </c>
       <c r="D79">
-        <v>0.3432209452003314</v>
+        <v>0.3589177417916704</v>
       </c>
       <c r="E79">
-        <v>0.552414740435652</v>
+        <v>0.2927889513621586</v>
       </c>
       <c r="F79">
-        <v>0.4500679155411073</v>
+        <v>0.3383482910322341</v>
       </c>
       <c r="G79">
-        <v>0.5193899157156341</v>
+        <v>0.2264220068404959</v>
       </c>
       <c r="H79">
-        <v>0.4710621325250039</v>
+        <v>0.215633150094447</v>
       </c>
       <c r="I79">
-        <v>-0.5070611709350891</v>
+        <v>-0.1324767128488485</v>
       </c>
       <c r="J79">
-        <v>-0.2849085192782412</v>
+        <v>-0.1477534957695596</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2934,31 +2934,31 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.190763430587322</v>
+        <v>-0.3084529141948039</v>
       </c>
       <c r="C80">
-        <v>0.1441896622633359</v>
+        <v>0.1594198391546981</v>
       </c>
       <c r="D80">
-        <v>0.2708374642975758</v>
+        <v>0.2764173269328054</v>
       </c>
       <c r="E80">
-        <v>0.1985187850000228</v>
+        <v>0.226323511922255</v>
       </c>
       <c r="F80">
-        <v>0.2484051581163412</v>
+        <v>0.2450376246032814</v>
       </c>
       <c r="G80">
-        <v>0.2515016582119827</v>
+        <v>0.2620473294095884</v>
       </c>
       <c r="H80">
-        <v>0.2909939978619777</v>
+        <v>0.3447570531394116</v>
       </c>
       <c r="I80">
-        <v>-0.1827433658525154</v>
+        <v>-0.1910283458697191</v>
       </c>
       <c r="J80">
-        <v>-0.1758977903715467</v>
+        <v>-0.1776790719409519</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2966,31 +2966,31 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.3702973694131081</v>
+        <v>-0.003219274882409543</v>
       </c>
       <c r="C81">
-        <v>0.08460465999067658</v>
+        <v>0.002044289407041737</v>
       </c>
       <c r="D81">
-        <v>0.578682412541357</v>
+        <v>0.002709823197524475</v>
       </c>
       <c r="E81">
-        <v>0.5370806953139692</v>
+        <v>0.002688926782519452</v>
       </c>
       <c r="F81">
-        <v>0.5255379784584968</v>
+        <v>0.002829228116002537</v>
       </c>
       <c r="G81">
-        <v>0.4443253491498323</v>
+        <v>0.002615528946493065</v>
       </c>
       <c r="H81">
-        <v>0.4620155060957961</v>
+        <v>0.002092049606507024</v>
       </c>
       <c r="I81">
-        <v>-0.9539529991096457</v>
+        <v>-0.0007691519424600608</v>
       </c>
       <c r="J81">
-        <v>-0.4019153223981242</v>
+        <v>-0.001077775629504284</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2998,31 +2998,31 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.01796901566834445</v>
+        <v>-0.02229107855384909</v>
       </c>
       <c r="C82">
-        <v>0.01675338734389632</v>
+        <v>0.01712288889114447</v>
       </c>
       <c r="D82">
-        <v>0.01982093559935869</v>
+        <v>0.02213760878633129</v>
       </c>
       <c r="E82">
-        <v>0.01836558531764975</v>
+        <v>0.02090382547173835</v>
       </c>
       <c r="F82">
-        <v>0.02018779143716662</v>
+        <v>0.02398161099094312</v>
       </c>
       <c r="G82">
-        <v>0.02200510640677932</v>
+        <v>0.02225967372713844</v>
       </c>
       <c r="H82">
-        <v>0.01678247313266409</v>
+        <v>0.01325015712693762</v>
       </c>
       <c r="I82">
-        <v>-0.003358886926472748</v>
+        <v>-0.007245144966203498</v>
       </c>
       <c r="J82">
-        <v>-0.001537002385979615</v>
+        <v>-0.006900923039981924</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3030,31 +3030,31 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1463695122922813</v>
+        <v>-0.2762121336873788</v>
       </c>
       <c r="C83">
-        <v>0.1063968890260372</v>
+        <v>0.1503253574212954</v>
       </c>
       <c r="D83">
-        <v>0.1324397714557884</v>
+        <v>0.3157573121973362</v>
       </c>
       <c r="E83">
-        <v>0.1128708371994631</v>
+        <v>0.350553452458025</v>
       </c>
       <c r="F83">
-        <v>0.1326776770916352</v>
+        <v>0.1735875369387207</v>
       </c>
       <c r="G83">
-        <v>0.1657008090745304</v>
+        <v>0.2293827704324677</v>
       </c>
       <c r="H83">
-        <v>0.1367900295417804</v>
+        <v>0.2780309608639501</v>
       </c>
       <c r="I83">
-        <v>-0.02623412511169219</v>
+        <v>-0.1165615401877298</v>
       </c>
       <c r="J83">
-        <v>-0.06856738745275558</v>
+        <v>-0.1327702305579457</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3062,31 +3062,31 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.3214966915099882</v>
+        <v>-0.1425657774450021</v>
       </c>
       <c r="C84">
-        <v>0.05785127171778794</v>
+        <v>0.06681128511178105</v>
       </c>
       <c r="D84">
-        <v>0.377438816831932</v>
+        <v>0.1443484934825545</v>
       </c>
       <c r="E84">
-        <v>0.1685537646074355</v>
+        <v>0.1254274508031137</v>
       </c>
       <c r="F84">
-        <v>0.4412586276651855</v>
+        <v>0.149099384120803</v>
       </c>
       <c r="G84">
-        <v>0.4147989662126199</v>
+        <v>0.1385209273039016</v>
       </c>
       <c r="H84">
-        <v>0.4444508539872907</v>
+        <v>0.1254530041937643</v>
       </c>
       <c r="I84">
-        <v>-0.2097666846984001</v>
+        <v>-0.05426233384427946</v>
       </c>
       <c r="J84">
-        <v>-0.2295683724447852</v>
+        <v>-0.01944882654870114</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3094,31 +3094,31 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4268770728171208</v>
+        <v>-0.1684090902441136</v>
       </c>
       <c r="C85">
-        <v>0.2166490022715741</v>
+        <v>0.08873753080999888</v>
       </c>
       <c r="D85">
-        <v>0.6168563689719795</v>
+        <v>0.1636589069577009</v>
       </c>
       <c r="E85">
-        <v>0.3027930978481221</v>
+        <v>0.165651318678004</v>
       </c>
       <c r="F85">
-        <v>0.5390180726159906</v>
+        <v>0.1340802201740605</v>
       </c>
       <c r="G85">
-        <v>0.4068023496666095</v>
+        <v>0.148729881414145</v>
       </c>
       <c r="H85">
-        <v>0.3667277744897179</v>
+        <v>0.07999610735137913</v>
       </c>
       <c r="I85">
-        <v>-0.4353988486488719</v>
+        <v>-0.04551845452353028</v>
       </c>
       <c r="J85">
-        <v>-0.5153800511432908</v>
+        <v>-0.05908261188525516</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3126,31 +3126,31 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.3525618620942789</v>
+        <v>-0.002993263378677402</v>
       </c>
       <c r="C86">
-        <v>0.3008545405116253</v>
+        <v>0.001846156381096903</v>
       </c>
       <c r="D86">
-        <v>0.2644869922833873</v>
+        <v>0.002706544356356034</v>
       </c>
       <c r="E86">
-        <v>0.4048426901526603</v>
+        <v>0.002324086638507839</v>
       </c>
       <c r="F86">
-        <v>0.4376703802296343</v>
+        <v>0.002881084182203722</v>
       </c>
       <c r="G86">
-        <v>0.4878931357012631</v>
+        <v>0.002821706169780353</v>
       </c>
       <c r="H86">
-        <v>0.7185512919507958</v>
+        <v>0.001890655098007571</v>
       </c>
       <c r="I86">
-        <v>-0.7087494212123909</v>
+        <v>-0.0007691201392581647</v>
       </c>
       <c r="J86">
-        <v>-0.168671779213138</v>
+        <v>-0.0005036998249250498</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3158,31 +3158,31 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.1084622352339987</v>
+        <v>-0.02251513528020802</v>
       </c>
       <c r="C87">
-        <v>0.1036291336250578</v>
+        <v>0.00955836614673277</v>
       </c>
       <c r="D87">
-        <v>0.129430139597374</v>
+        <v>0.0267445555501646</v>
       </c>
       <c r="E87">
-        <v>0.08302191295364898</v>
+        <v>0.02058940703541161</v>
       </c>
       <c r="F87">
-        <v>0.1487547291547363</v>
+        <v>0.02246972678382069</v>
       </c>
       <c r="G87">
-        <v>0.1377439184359051</v>
+        <v>0.02270819720576262</v>
       </c>
       <c r="H87">
-        <v>0.09204388791948098</v>
+        <v>0.01525421781403093</v>
       </c>
       <c r="I87">
-        <v>-0.02971025718672308</v>
+        <v>-0.007232162872902914</v>
       </c>
       <c r="J87">
-        <v>-0.02013779944041749</v>
+        <v>-0.008722027666850322</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3190,31 +3190,31 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.002356699752539767</v>
+        <v>-0.002313858935455853</v>
       </c>
       <c r="C88">
-        <v>0.001629078544142583</v>
+        <v>0.0009197997995227693</v>
       </c>
       <c r="D88">
-        <v>0.0026934412332821</v>
+        <v>0.002276731807873447</v>
       </c>
       <c r="E88">
-        <v>0.002528691720076335</v>
+        <v>0.002944682283203016</v>
       </c>
       <c r="F88">
-        <v>0.002294968548423123</v>
+        <v>0.002312885672907453</v>
       </c>
       <c r="G88">
-        <v>0.002284016607139139</v>
+        <v>0.00221880893980123</v>
       </c>
       <c r="H88">
-        <v>0.00183213913795652</v>
+        <v>0.001537644014019918</v>
       </c>
       <c r="I88">
-        <v>-0.0003580166824961571</v>
+        <v>-0.0007691188944435272</v>
       </c>
       <c r="J88">
-        <v>-0.0004695321370857323</v>
+        <v>-0.000798446223236207</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3222,31 +3222,31 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.2908391158647535</v>
+        <v>-0.3418405830172841</v>
       </c>
       <c r="C89">
-        <v>0.01535202461681831</v>
+        <v>0.01090256602149554</v>
       </c>
       <c r="D89">
-        <v>0.4713944531869652</v>
+        <v>0.2898376074291563</v>
       </c>
       <c r="E89">
-        <v>0.4701912713424654</v>
+        <v>0.3183612583513801</v>
       </c>
       <c r="F89">
-        <v>0.3774896652616672</v>
+        <v>0.3429954002880738</v>
       </c>
       <c r="G89">
-        <v>0.5523000705485196</v>
+        <v>0.3683851818403289</v>
       </c>
       <c r="H89">
-        <v>0.9158858102532421</v>
+        <v>0.2670810431527163</v>
       </c>
       <c r="I89">
-        <v>-1.101205549737263</v>
+        <v>-0.1392461827316743</v>
       </c>
       <c r="J89">
-        <v>-0.1601447001386586</v>
+        <v>-0.04551780473287641</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3254,31 +3254,31 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.4815868821955574</v>
+        <v>-0.003289147153651187</v>
       </c>
       <c r="C90">
-        <v>0.1040399841673013</v>
+        <v>0.00145795052002875</v>
       </c>
       <c r="D90">
-        <v>0.3635656869491747</v>
+        <v>0.002637993184443013</v>
       </c>
       <c r="E90">
-        <v>0.3799829439740208</v>
+        <v>0.003013022011211583</v>
       </c>
       <c r="F90">
-        <v>0.6774777867683816</v>
+        <v>0.002872981017737464</v>
       </c>
       <c r="G90">
-        <v>0.3993851059105387</v>
+        <v>0.002749584051840377</v>
       </c>
       <c r="H90">
-        <v>0.534778412921626</v>
+        <v>0.002240443269094056</v>
       </c>
       <c r="I90">
-        <v>-0.4774715633957832</v>
+        <v>-0.0007694355635681194</v>
       </c>
       <c r="J90">
-        <v>-0.2015990698499089</v>
+        <v>-0.0009971872205877805</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3286,31 +3286,31 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.1148987257298487</v>
+        <v>-0.1261052216400875</v>
       </c>
       <c r="C91">
-        <v>0.1112222111542645</v>
+        <v>0.07715365202000288</v>
       </c>
       <c r="D91">
-        <v>0.1453706592780972</v>
+        <v>0.1448726518185033</v>
       </c>
       <c r="E91">
-        <v>0.1507704458882</v>
+        <v>0.1222235429506954</v>
       </c>
       <c r="F91">
-        <v>0.1124085835575004</v>
+        <v>0.1098289544822516</v>
       </c>
       <c r="G91">
-        <v>0.1089631398911835</v>
+        <v>0.1122340661780621</v>
       </c>
       <c r="H91">
-        <v>0.07234047269998306</v>
+        <v>0.1413562557199997</v>
       </c>
       <c r="I91">
-        <v>-0.02757589765214184</v>
+        <v>-0.05808094807802192</v>
       </c>
       <c r="J91">
-        <v>-0.006124927242215347</v>
+        <v>-0.06919370463924815</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3318,31 +3318,31 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.2201637586733505</v>
+        <v>-0.3357266288781534</v>
       </c>
       <c r="C92">
-        <v>0.1976326791208867</v>
+        <v>0.1877082774059367</v>
       </c>
       <c r="D92">
-        <v>0.3351596425607037</v>
+        <v>0.3391820499329887</v>
       </c>
       <c r="E92">
-        <v>0.1523998577499052</v>
+        <v>0.2289804842158811</v>
       </c>
       <c r="F92">
-        <v>0.3520309714647221</v>
+        <v>0.1729342893727867</v>
       </c>
       <c r="G92">
-        <v>0.3611779355304573</v>
+        <v>0.2411112249115887</v>
       </c>
       <c r="H92">
-        <v>0.5923027457108945</v>
+        <v>0.4416025660076234</v>
       </c>
       <c r="I92">
-        <v>-0.5439083486110179</v>
+        <v>-0.1677325872796513</v>
       </c>
       <c r="J92">
-        <v>-0.1556311809567015</v>
+        <v>-0.1268002846509795</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3350,31 +3350,31 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.002392752694847211</v>
+        <v>-0.002210632292536511</v>
       </c>
       <c r="C93">
-        <v>0.001674801145103101</v>
+        <v>0.001604515712890196</v>
       </c>
       <c r="D93">
-        <v>0.002737936366879187</v>
+        <v>0.002387166253706841</v>
       </c>
       <c r="E93">
-        <v>0.002142946633513394</v>
+        <v>0.001931488714249624</v>
       </c>
       <c r="F93">
-        <v>0.002545635227234702</v>
+        <v>0.002524134410025659</v>
       </c>
       <c r="G93">
-        <v>0.002335678537887046</v>
+        <v>0.002180164023753115</v>
       </c>
       <c r="H93">
-        <v>0.001952108816653746</v>
+        <v>0.001807955174084872</v>
       </c>
       <c r="I93">
-        <v>-0.0003583221431992648</v>
+        <v>-0.0007678867713539409</v>
       </c>
       <c r="J93">
-        <v>-0.0003987908823454328</v>
+        <v>-0.0003661529921115875</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3382,31 +3382,31 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.4117231678504035</v>
+        <v>-0.3086964878891481</v>
       </c>
       <c r="C94">
-        <v>0.157432979002396</v>
+        <v>0.2558250104227945</v>
       </c>
       <c r="D94">
-        <v>0.3616157213075297</v>
+        <v>0.2267419925570306</v>
       </c>
       <c r="E94">
-        <v>0.294823101275668</v>
+        <v>0.1491231323526855</v>
       </c>
       <c r="F94">
-        <v>0.39560375264108</v>
+        <v>0.2221321912827634</v>
       </c>
       <c r="G94">
-        <v>0.2989792599876604</v>
+        <v>0.2529029633734995</v>
       </c>
       <c r="H94">
-        <v>0.3629460126396485</v>
+        <v>0.426317708845361</v>
       </c>
       <c r="I94">
-        <v>-0.1227284722597098</v>
+        <v>-0.1760353378361177</v>
       </c>
       <c r="J94">
-        <v>-0.2521935071366898</v>
+        <v>-0.1847167124030492</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3414,31 +3414,31 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.02676879380535571</v>
+        <v>-0.02038418015681182</v>
       </c>
       <c r="C95">
-        <v>0.01179250049576777</v>
+        <v>0.01224458304067045</v>
       </c>
       <c r="D95">
-        <v>0.02558596228378272</v>
+        <v>0.01946388205424264</v>
       </c>
       <c r="E95">
-        <v>0.02586887285223564</v>
+        <v>0.02125450418354676</v>
       </c>
       <c r="F95">
-        <v>0.02605041942308583</v>
+        <v>0.02238409962259342</v>
       </c>
       <c r="G95">
-        <v>0.02128955966303045</v>
+        <v>0.02158086185617135</v>
       </c>
       <c r="H95">
-        <v>0.01741607860515863</v>
+        <v>0.01859841925095247</v>
       </c>
       <c r="I95">
-        <v>-0.003564856762045176</v>
+        <v>-0.007223216429316963</v>
       </c>
       <c r="J95">
-        <v>-0.01788885935530589</v>
+        <v>-0.004020070794072995</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3446,31 +3446,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.002920373105118171</v>
+        <v>-0.02240193961135668</v>
       </c>
       <c r="C96">
-        <v>0.002106203557785537</v>
+        <v>0.01151363316888703</v>
       </c>
       <c r="D96">
-        <v>0.00276419126814789</v>
+        <v>0.02086625561947271</v>
       </c>
       <c r="E96">
-        <v>0.002138622000104456</v>
+        <v>0.01932054868498544</v>
       </c>
       <c r="F96">
-        <v>0.002992937226222531</v>
+        <v>0.0225978331998405</v>
       </c>
       <c r="G96">
-        <v>0.002591612052123183</v>
+        <v>0.0214163984344059</v>
       </c>
       <c r="H96">
-        <v>0.001980162417966954</v>
+        <v>0.02380259380716401</v>
       </c>
       <c r="I96">
-        <v>-0.0003591221849109115</v>
+        <v>-0.007610757776616331</v>
       </c>
       <c r="J96">
-        <v>-0.001037955965045004</v>
+        <v>-0.007674254026622211</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3478,31 +3478,31 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.3860505818582781</v>
+        <v>-0.02307208407688292</v>
       </c>
       <c r="C97">
-        <v>0.2905028624035238</v>
+        <v>0.01072832815456768</v>
       </c>
       <c r="D97">
-        <v>0.1976062035731566</v>
+        <v>0.02421109996459099</v>
       </c>
       <c r="E97">
-        <v>0.2449812361281995</v>
+        <v>0.0205354092165551</v>
       </c>
       <c r="F97">
-        <v>0.4005812695236109</v>
+        <v>0.02446719811178739</v>
       </c>
       <c r="G97">
-        <v>0.4400904310238763</v>
+        <v>0.02369157978060725</v>
       </c>
       <c r="H97">
-        <v>0.3870562633662633</v>
+        <v>0.01687606978043048</v>
       </c>
       <c r="I97">
-        <v>-0.09819012348370196</v>
+        <v>-0.00715694035020573</v>
       </c>
       <c r="J97">
-        <v>-0.1531805349639918</v>
+        <v>-0.007629425675722374</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3510,31 +3510,31 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1334614578214343</v>
+        <v>-0.391876566536364</v>
       </c>
       <c r="C98">
-        <v>0.04205740554598184</v>
+        <v>0.2212510997061724</v>
       </c>
       <c r="D98">
-        <v>0.12709857376713</v>
+        <v>0.2046621878883679</v>
       </c>
       <c r="E98">
-        <v>0.1362305838552031</v>
+        <v>0.2911371810208397</v>
       </c>
       <c r="F98">
-        <v>0.1585147952134954</v>
+        <v>0.3712487539104671</v>
       </c>
       <c r="G98">
-        <v>0.1567386078814482</v>
+        <v>0.4163648503183658</v>
       </c>
       <c r="H98">
-        <v>0.1007180097067821</v>
+        <v>0.4508651619558139</v>
       </c>
       <c r="I98">
-        <v>-0.02854818158146834</v>
+        <v>-0.2547788492619912</v>
       </c>
       <c r="J98">
-        <v>-0.05929785672290357</v>
+        <v>-0.2008572090772185</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3542,31 +3542,31 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.07273695563963195</v>
+        <v>-0.002817109357934388</v>
       </c>
       <c r="C99">
-        <v>0.3596432640001957</v>
+        <v>0.002176425421647329</v>
       </c>
       <c r="D99">
-        <v>0.6784511754319703</v>
+        <v>0.002794044149651103</v>
       </c>
       <c r="E99">
-        <v>0.2919499179410135</v>
+        <v>0.00229653681288922</v>
       </c>
       <c r="F99">
-        <v>0.38322425227181</v>
+        <v>0.002873557968160149</v>
       </c>
       <c r="G99">
-        <v>0.1147484333700576</v>
+        <v>0.002589997255712329</v>
       </c>
       <c r="H99">
-        <v>0.7842288171416846</v>
+        <v>0.001159642424944369</v>
       </c>
       <c r="I99">
-        <v>-1.629704205591514</v>
+        <v>-0.0007682322503691031</v>
       </c>
       <c r="J99">
-        <v>-0.3184798849163914</v>
+        <v>-0.0001441668901782665</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3574,31 +3574,31 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.2596412662597233</v>
+        <v>-0.3992748759569698</v>
       </c>
       <c r="C100">
-        <v>0.2850206977790264</v>
+        <v>0.1620161792936157</v>
       </c>
       <c r="D100">
-        <v>0.3222582969364527</v>
+        <v>0.2053028651913784</v>
       </c>
       <c r="E100">
-        <v>0.340245309683884</v>
+        <v>0.3961203051578445</v>
       </c>
       <c r="F100">
-        <v>0.4114345495216259</v>
+        <v>0.3453628476216463</v>
       </c>
       <c r="G100">
-        <v>0.3984244761179966</v>
+        <v>0.3639721777915743</v>
       </c>
       <c r="H100">
-        <v>0.5143071955236956</v>
+        <v>0.4090027351230117</v>
       </c>
       <c r="I100">
-        <v>-0.6256012534237714</v>
+        <v>-0.2475591837003959</v>
       </c>
       <c r="J100">
-        <v>-0.2392012228789526</v>
+        <v>-0.1456967464880208</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3606,31 +3606,31 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.2317914503256968</v>
+        <v>-0.1346235641428877</v>
       </c>
       <c r="C101">
-        <v>0.2199787477157042</v>
+        <v>0.1016421204411041</v>
       </c>
       <c r="D101">
-        <v>0.2146304204147</v>
+        <v>0.1376958477769718</v>
       </c>
       <c r="E101">
-        <v>0.2454770451392391</v>
+        <v>0.08564775298520426</v>
       </c>
       <c r="F101">
-        <v>0.2380381545697777</v>
+        <v>0.1484006843070477</v>
       </c>
       <c r="G101">
-        <v>0.2640833457314098</v>
+        <v>0.1281977901503425</v>
       </c>
       <c r="H101">
-        <v>0.3256334525293139</v>
+        <v>0.1310198024720075</v>
       </c>
       <c r="I101">
-        <v>-0.09710561121367497</v>
+        <v>-0.05177489058637806</v>
       </c>
       <c r="J101">
-        <v>-0.1233563764853948</v>
+        <v>-0.01952600633717186</v>
       </c>
     </row>
   </sheetData>
